--- a/2023/Rezultaty_kubka_2023_trail.xlsx
+++ b/2023/Rezultaty_kubka_2023_trail.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vspys\OneDrive\Документы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vspys\Documents\GitHub\o-52\trail\2023\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="5772" tabRatio="691" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="5772" tabRatio="691"/>
   </bookViews>
   <sheets>
     <sheet name="М" sheetId="2" r:id="rId1"/>
@@ -826,9 +826,25 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="21" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="21" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -841,24 +857,8 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="21" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="21" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -868,67 +868,7 @@
     <cellStyle name="Обычный 4" xfId="4"/>
     <cellStyle name="Финансовый" xfId="1" builtinId="3"/>
   </cellStyles>
-  <dxfs count="41">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="35">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1588,7 +1528,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:BF22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
@@ -1652,110 +1592,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="60" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52" t="s">
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="51" t="s">
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="53" t="s">
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="53" t="s">
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="53" t="s">
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="53" t="s">
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="53" t="s">
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="53" t="s">
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="52" t="s">
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52" t="s">
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52" t="s">
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="52"/>
-      <c r="BB1" s="52"/>
-      <c r="BC1" s="52" t="s">
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="BD1" s="52"/>
-      <c r="BE1" s="52"/>
-      <c r="BF1" s="52"/>
+      <c r="BD1" s="60"/>
+      <c r="BE1" s="60"/>
+      <c r="BF1" s="60"/>
     </row>
     <row r="2" spans="1:58" s="2" customFormat="1" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="20" t="s">
         <v>7</v>
       </c>
@@ -1915,7 +1855,7 @@
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
-        <f>IF(D3=0," ",RANK(D3,$D$3:$D$22,0))</f>
+        <f t="shared" ref="A3:A22" si="0">IF(D3=0," ",RANK(D3,$D$3:$D$22,0))</f>
         <v>1</v>
       </c>
       <c r="B3" s="9">
@@ -1925,15 +1865,15 @@
         <v>106</v>
       </c>
       <c r="D3" s="13">
-        <f>I3+M3+Q3+U3+Y3+AC3+AG3+AK3+AO3+AS3+AW3+BA3+BE3</f>
-        <v>112.5</v>
+        <f t="shared" ref="D3:D17" si="1">I3+M3+Q3+U3+Y3+AC3+AG3+AK3+AO3+AS3+AW3+BA3+BE3</f>
+        <v>113</v>
       </c>
       <c r="E3" s="13">
-        <f>J3+N3+R3+V3+Z3+AD3+AH3+AL3+AP3+AT3+AX3+BB3+BF3</f>
-        <v>25</v>
+        <f t="shared" ref="E3:E17" si="2">J3+N3+R3+V3+Z3+AD3+AH3+AL3+AP3+AT3+AX3+BB3+BF3</f>
+        <v>26</v>
       </c>
       <c r="F3" s="13">
-        <f>COUNTA(H3,L3,P3,T3,X3,AB3,AF3,AJ3,AN3,AR3,AV3,AZ3,BD3)</f>
+        <f t="shared" ref="F3:F17" si="3">COUNTA(H3,L3,P3,T3,X3,AB3,AF3,AJ3,AN3,AR3,AV3,AZ3,BD3)</f>
         <v>1</v>
       </c>
       <c r="G3" s="5">
@@ -1946,11 +1886,11 @@
       </c>
       <c r="I3" s="6">
         <f>VLOOKUP(H3,Баллы!$A$2:$B$101,2)+J3/2</f>
-        <v>112.5</v>
+        <v>113</v>
       </c>
       <c r="J3" s="6">
         <f>VLOOKUP(C3,'1'!B19:H119,6,FALSE)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="6"/>
@@ -2003,7 +1943,7 @@
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
-        <f>IF(D4=0," ",RANK(D4,$D$3:$D$22,0))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="9">
@@ -2013,15 +1953,15 @@
         <v>108</v>
       </c>
       <c r="D4" s="13">
-        <f>I4+M4+Q4+U4+Y4+AC4+AG4+AK4+AO4+AS4+AW4+BA4+BE4</f>
-        <v>109.5</v>
+        <f t="shared" si="1"/>
+        <v>110</v>
       </c>
       <c r="E4" s="13">
-        <f>J4+N4+R4+V4+Z4+AD4+AH4+AL4+AP4+AT4+AX4+BB4+BF4</f>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>26</v>
       </c>
       <c r="F4" s="13">
-        <f>COUNTA(H4,L4,P4,T4,X4,AB4,AF4,AJ4,AN4,AR4,AV4,AZ4,BD4)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G4" s="5">
@@ -2034,11 +1974,11 @@
       </c>
       <c r="I4" s="6">
         <f>VLOOKUP(H4,Баллы!$A$2:$B$101,2)+J4/2</f>
-        <v>109.5</v>
+        <v>110</v>
       </c>
       <c r="J4" s="6">
         <f>VLOOKUP(C4,'1'!B20:H120,6,FALSE)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -2091,7 +2031,7 @@
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
-        <f>IF(D5=0," ",RANK(D5,$D$3:$D$22,0))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="9">
@@ -2101,15 +2041,15 @@
         <v>132</v>
       </c>
       <c r="D5" s="13">
-        <f>I5+M5+Q5+U5+Y5+AC5+AG5+AK5+AO5+AS5+AW5+BA5+BE5</f>
-        <v>107.5</v>
+        <f t="shared" si="1"/>
+        <v>108</v>
       </c>
       <c r="E5" s="13">
-        <f>J5+N5+R5+V5+Z5+AD5+AH5+AL5+AP5+AT5+AX5+BB5+BF5</f>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>26</v>
       </c>
       <c r="F5" s="13">
-        <f>COUNTA(H5,L5,P5,T5,X5,AB5,AF5,AJ5,AN5,AR5,AV5,AZ5,BD5)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G5" s="5">
@@ -2122,11 +2062,11 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP(H5,Баллы!$A$2:$B$101,2)+J5/2</f>
-        <v>107.5</v>
+        <v>108</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP(C5,'1'!B21:H121,6,FALSE)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="6"/>
@@ -2179,7 +2119,7 @@
     </row>
     <row r="6" spans="1:58" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
-        <f>IF(D6=0," ",RANK(D6,$D$3:$D$22,0))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="9">
@@ -2189,15 +2129,15 @@
         <v>72</v>
       </c>
       <c r="D6" s="13">
-        <f>I6+M6+Q6+U6+Y6+AC6+AG6+AK6+AO6+AS6+AW6+BA6+BE6</f>
-        <v>105.5</v>
+        <f t="shared" si="1"/>
+        <v>106</v>
       </c>
       <c r="E6" s="13">
-        <f>J6+N6+R6+V6+Z6+AD6+AH6+AL6+AP6+AT6+AX6+BB6+BF6</f>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>26</v>
       </c>
       <c r="F6" s="13">
-        <f>COUNTA(H6,L6,P6,T6,X6,AB6,AF6,AJ6,AN6,AR6,AV6,AZ6,BD6)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G6" s="5">
@@ -2210,11 +2150,11 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP(H6,Баллы!$A$2:$B$101,2)+J6/2</f>
-        <v>105.5</v>
+        <v>106</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP(C6,'1'!B22:H122,6,FALSE)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -2267,8 +2207,8 @@
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
-        <f>IF(D7=0," ",RANK(D7,$D$3:$D$22,0))</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
       <c r="B7" s="9">
         <v>5</v>
@@ -2277,15 +2217,15 @@
         <v>65</v>
       </c>
       <c r="D7" s="13">
-        <f>I7+M7+Q7+U7+Y7+AC7+AG7+AK7+AO7+AS7+AW7+BA7+BE7</f>
+        <f t="shared" si="1"/>
         <v>105.5</v>
       </c>
       <c r="E7" s="13">
-        <f>J7+N7+R7+V7+Z7+AD7+AH7+AL7+AP7+AT7+AX7+BB7+BF7</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F7" s="13">
-        <f>COUNTA(H7,L7,P7,T7,X7,AB7,AF7,AJ7,AN7,AR7,AV7,AZ7,BD7)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G7" s="5">
@@ -2355,7 +2295,7 @@
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
-        <f>IF(D8=0," ",RANK(D8,$D$3:$D$22,0))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="9">
@@ -2365,15 +2305,15 @@
         <v>44</v>
       </c>
       <c r="D8" s="13">
-        <f>I8+M8+Q8+U8+Y8+AC8+AG8+AK8+AO8+AS8+AW8+BA8+BE8</f>
-        <v>103.5</v>
+        <f t="shared" si="1"/>
+        <v>104</v>
       </c>
       <c r="E8" s="13">
-        <f>J8+N8+R8+V8+Z8+AD8+AH8+AL8+AP8+AT8+AX8+BB8+BF8</f>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>26</v>
       </c>
       <c r="F8" s="13">
-        <f>COUNTA(H8,L8,P8,T8,X8,AB8,AF8,AJ8,AN8,AR8,AV8,AZ8,BD8)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G8" s="5">
@@ -2386,11 +2326,11 @@
       </c>
       <c r="I8" s="6">
         <f>VLOOKUP(H8,Баллы!$A$2:$B$101,2)+J8/2</f>
-        <v>103.5</v>
+        <v>104</v>
       </c>
       <c r="J8" s="6">
         <f>VLOOKUP(C8,'1'!B23:H123,6,FALSE)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -2443,7 +2383,7 @@
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
-        <f>IF(D9=0," ",RANK(D9,$D$3:$D$22,0))</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="9">
@@ -2453,15 +2393,15 @@
         <v>33</v>
       </c>
       <c r="D9" s="13">
-        <f>I9+M9+Q9+U9+Y9+AC9+AG9+AK9+AO9+AS9+AW9+BA9+BE9</f>
+        <f t="shared" si="1"/>
         <v>102.5</v>
       </c>
       <c r="E9" s="13">
-        <f>J9+N9+R9+V9+Z9+AD9+AH9+AL9+AP9+AT9+AX9+BB9+BF9</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F9" s="13">
-        <f>COUNTA(H9,L9,P9,T9,X9,AB9,AF9,AJ9,AN9,AR9,AV9,AZ9,BD9)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G9" s="5">
@@ -2480,58 +2420,58 @@
         <f>VLOOKUP(C9,'1'!B11:H111,6,FALSE)</f>
         <v>11</v>
       </c>
-      <c r="K9" s="59"/>
-      <c r="L9" s="60"/>
-      <c r="M9" s="60"/>
-      <c r="N9" s="60"/>
-      <c r="O9" s="59"/>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="60"/>
-      <c r="R9" s="60"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="60"/>
-      <c r="AD9" s="60"/>
-      <c r="AE9" s="61"/>
-      <c r="AF9" s="62"/>
-      <c r="AG9" s="62"/>
-      <c r="AH9" s="62"/>
-      <c r="AI9" s="61"/>
-      <c r="AJ9" s="62"/>
-      <c r="AK9" s="62"/>
-      <c r="AL9" s="62"/>
-      <c r="AM9" s="61"/>
-      <c r="AN9" s="62"/>
-      <c r="AO9" s="62"/>
-      <c r="AP9" s="62"/>
-      <c r="AQ9" s="59"/>
-      <c r="AR9" s="60"/>
-      <c r="AS9" s="60"/>
-      <c r="AT9" s="60"/>
-      <c r="AU9" s="59"/>
-      <c r="AV9" s="60"/>
-      <c r="AW9" s="60"/>
-      <c r="AX9" s="60"/>
-      <c r="AY9" s="59"/>
-      <c r="AZ9" s="60"/>
-      <c r="BA9" s="60"/>
-      <c r="BB9" s="60"/>
-      <c r="BC9" s="59"/>
-      <c r="BD9" s="60"/>
-      <c r="BE9" s="60"/>
-      <c r="BF9" s="60"/>
+      <c r="K9" s="51"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="52"/>
+      <c r="N9" s="52"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="52"/>
+      <c r="Q9" s="52"/>
+      <c r="R9" s="52"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="54"/>
+      <c r="AG9" s="54"/>
+      <c r="AH9" s="54"/>
+      <c r="AI9" s="53"/>
+      <c r="AJ9" s="54"/>
+      <c r="AK9" s="54"/>
+      <c r="AL9" s="54"/>
+      <c r="AM9" s="53"/>
+      <c r="AN9" s="54"/>
+      <c r="AO9" s="54"/>
+      <c r="AP9" s="54"/>
+      <c r="AQ9" s="51"/>
+      <c r="AR9" s="52"/>
+      <c r="AS9" s="52"/>
+      <c r="AT9" s="52"/>
+      <c r="AU9" s="51"/>
+      <c r="AV9" s="52"/>
+      <c r="AW9" s="52"/>
+      <c r="AX9" s="52"/>
+      <c r="AY9" s="51"/>
+      <c r="AZ9" s="52"/>
+      <c r="BA9" s="52"/>
+      <c r="BB9" s="52"/>
+      <c r="BC9" s="51"/>
+      <c r="BD9" s="52"/>
+      <c r="BE9" s="52"/>
+      <c r="BF9" s="52"/>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
-        <f>IF(D10=0," ",RANK(D10,$D$3:$D$22,0))</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="9">
@@ -2541,15 +2481,15 @@
         <v>35</v>
       </c>
       <c r="D10" s="13">
-        <f>I10+M10+Q10+U10+Y10+AC10+AG10+AK10+AO10+AS10+AW10+BA10+BE10</f>
+        <f t="shared" si="1"/>
         <v>100.5</v>
       </c>
       <c r="E10" s="13">
-        <f>J10+N10+R10+V10+Z10+AD10+AH10+AL10+AP10+AT10+AX10+BB10+BF10</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F10" s="13">
-        <f>COUNTA(H10,L10,P10,T10,X10,AB10,AF10,AJ10,AN10,AR10,AV10,AZ10,BD10)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G10" s="5">
@@ -2568,58 +2508,58 @@
         <f>VLOOKUP(C10,'1'!B12:H112,6,FALSE)</f>
         <v>11</v>
       </c>
-      <c r="K10" s="59"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="59"/>
-      <c r="P10" s="60"/>
-      <c r="Q10" s="60"/>
-      <c r="R10" s="60"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="60"/>
-      <c r="AD10" s="60"/>
-      <c r="AE10" s="61"/>
-      <c r="AF10" s="62"/>
-      <c r="AG10" s="62"/>
-      <c r="AH10" s="62"/>
-      <c r="AI10" s="61"/>
-      <c r="AJ10" s="62"/>
-      <c r="AK10" s="62"/>
-      <c r="AL10" s="62"/>
-      <c r="AM10" s="61"/>
-      <c r="AN10" s="62"/>
-      <c r="AO10" s="62"/>
-      <c r="AP10" s="62"/>
-      <c r="AQ10" s="59"/>
-      <c r="AR10" s="60"/>
-      <c r="AS10" s="60"/>
-      <c r="AT10" s="60"/>
-      <c r="AU10" s="59"/>
-      <c r="AV10" s="60"/>
-      <c r="AW10" s="60"/>
-      <c r="AX10" s="60"/>
-      <c r="AY10" s="59"/>
-      <c r="AZ10" s="60"/>
-      <c r="BA10" s="60"/>
-      <c r="BB10" s="60"/>
-      <c r="BC10" s="59"/>
-      <c r="BD10" s="60"/>
-      <c r="BE10" s="60"/>
-      <c r="BF10" s="60"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="51"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
+      <c r="R10" s="52"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="52"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="54"/>
+      <c r="AG10" s="54"/>
+      <c r="AH10" s="54"/>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="54"/>
+      <c r="AK10" s="54"/>
+      <c r="AL10" s="54"/>
+      <c r="AM10" s="53"/>
+      <c r="AN10" s="54"/>
+      <c r="AO10" s="54"/>
+      <c r="AP10" s="54"/>
+      <c r="AQ10" s="51"/>
+      <c r="AR10" s="52"/>
+      <c r="AS10" s="52"/>
+      <c r="AT10" s="52"/>
+      <c r="AU10" s="51"/>
+      <c r="AV10" s="52"/>
+      <c r="AW10" s="52"/>
+      <c r="AX10" s="52"/>
+      <c r="AY10" s="51"/>
+      <c r="AZ10" s="52"/>
+      <c r="BA10" s="52"/>
+      <c r="BB10" s="52"/>
+      <c r="BC10" s="51"/>
+      <c r="BD10" s="52"/>
+      <c r="BE10" s="52"/>
+      <c r="BF10" s="52"/>
     </row>
     <row r="11" spans="1:58" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="11">
-        <f>IF(D11=0," ",RANK(D11,$D$3:$D$22,0))</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="9">
@@ -2629,15 +2569,15 @@
         <v>64</v>
       </c>
       <c r="D11" s="13">
-        <f>I11+M11+Q11+U11+Y11+AC11+AG11+AK11+AO11+AS11+AW11+BA11+BE11</f>
-        <v>99.5</v>
+        <f t="shared" si="1"/>
+        <v>100</v>
       </c>
       <c r="E11" s="13">
-        <f>J11+N11+R11+V11+Z11+AD11+AH11+AL11+AP11+AT11+AX11+BB11+BF11</f>
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>26</v>
       </c>
       <c r="F11" s="13">
-        <f>COUNTA(H11,L11,P11,T11,X11,AB11,AF11,AJ11,AN11,AR11,AV11,AZ11,BD11)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G11" s="5">
@@ -2650,11 +2590,11 @@
       </c>
       <c r="I11" s="6">
         <f>VLOOKUP(H11,Баллы!$A$2:$B$101,2)+J11/2</f>
-        <v>99.5</v>
+        <v>100</v>
       </c>
       <c r="J11" s="6">
         <f>VLOOKUP(C11,'1'!B24:H124,6,FALSE)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -2707,7 +2647,7 @@
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A12" s="11">
-        <f>IF(D12=0," ",RANK(D12,$D$3:$D$22,0))</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="9">
@@ -2717,15 +2657,15 @@
         <v>40</v>
       </c>
       <c r="D12" s="13">
-        <f>I12+M12+Q12+U12+Y12+AC12+AG12+AK12+AO12+AS12+AW12+BA12+BE12</f>
+        <f t="shared" si="1"/>
         <v>96.5</v>
       </c>
       <c r="E12" s="13">
-        <f>J12+N12+R12+V12+Z12+AD12+AH12+AL12+AP12+AT12+AX12+BB12+BF12</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F12" s="13">
-        <f>COUNTA(H12,L12,P12,T12,X12,AB12,AF12,AJ12,AN12,AR12,AV12,AZ12,BD12)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G12" s="5">
@@ -2795,7 +2735,7 @@
     </row>
     <row r="13" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
-        <f>IF(D13=0," ",RANK(D13,$D$3:$D$22,0))</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="9">
@@ -2805,15 +2745,15 @@
         <v>39</v>
       </c>
       <c r="D13" s="13">
-        <f>I13+M13+Q13+U13+Y13+AC13+AG13+AK13+AO13+AS13+AW13+BA13+BE13</f>
+        <f t="shared" si="1"/>
         <v>92.5</v>
       </c>
       <c r="E13" s="13">
-        <f>J13+N13+R13+V13+Z13+AD13+AH13+AL13+AP13+AT13+AX13+BB13+BF13</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F13" s="13">
-        <f>COUNTA(H13,L13,P13,T13,X13,AB13,AF13,AJ13,AN13,AR13,AV13,AZ13,BD13)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G13" s="5">
@@ -2883,7 +2823,7 @@
     </row>
     <row r="14" spans="1:58" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
-        <f>IF(D14=0," ",RANK(D14,$D$3:$D$22,0))</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="9">
@@ -2893,15 +2833,15 @@
         <v>63</v>
       </c>
       <c r="D14" s="13">
-        <f>I14+M14+Q14+U14+Y14+AC14+AG14+AK14+AO14+AS14+AW14+BA14+BE14</f>
+        <f t="shared" si="1"/>
         <v>90.5</v>
       </c>
       <c r="E14" s="13">
-        <f>J14+N14+R14+V14+Z14+AD14+AH14+AL14+AP14+AT14+AX14+BB14+BF14</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F14" s="13">
-        <f>COUNTA(H14,L14,P14,T14,X14,AB14,AF14,AJ14,AN14,AR14,AV14,AZ14,BD14)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G14" s="5">
@@ -2971,7 +2911,7 @@
     </row>
     <row r="15" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
-        <f>IF(D15=0," ",RANK(D15,$D$3:$D$22,0))</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="9">
@@ -2981,15 +2921,15 @@
         <v>38</v>
       </c>
       <c r="D15" s="13">
-        <f>I15+M15+Q15+U15+Y15+AC15+AG15+AK15+AO15+AS15+AW15+BA15+BE15</f>
+        <f t="shared" si="1"/>
         <v>88.5</v>
       </c>
       <c r="E15" s="13">
-        <f>J15+N15+R15+V15+Z15+AD15+AH15+AL15+AP15+AT15+AX15+BB15+BF15</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F15" s="13">
-        <f>COUNTA(H15,L15,P15,T15,X15,AB15,AF15,AJ15,AN15,AR15,AV15,AZ15,BD15)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G15" s="5">
@@ -3059,7 +2999,7 @@
     </row>
     <row r="16" spans="1:58" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="11">
-        <f>IF(D16=0," ",RANK(D16,$D$3:$D$22,0))</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" s="9">
@@ -3069,15 +3009,15 @@
         <v>41</v>
       </c>
       <c r="D16" s="13">
-        <f>I16+M16+Q16+U16+Y16+AC16+AG16+AK16+AO16+AS16+AW16+BA16+BE16</f>
+        <f t="shared" si="1"/>
         <v>85.5</v>
       </c>
       <c r="E16" s="13">
-        <f>J16+N16+R16+V16+Z16+AD16+AH16+AL16+AP16+AT16+AX16+BB16+BF16</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F16" s="13">
-        <f>COUNTA(H16,L16,P16,T16,X16,AB16,AF16,AJ16,AN16,AR16,AV16,AZ16,BD16)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G16" s="5">
@@ -3147,7 +3087,7 @@
     </row>
     <row r="17" spans="1:58" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="11">
-        <f>IF(D17=0," ",RANK(D17,$D$3:$D$22,0))</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" s="9">
@@ -3157,15 +3097,15 @@
         <v>26</v>
       </c>
       <c r="D17" s="13">
-        <f>I17+M17+Q17+U17+Y17+AC17+AG17+AK17+AO17+AS17+AW17+BA17+BE17</f>
+        <f t="shared" si="1"/>
         <v>80.5</v>
       </c>
       <c r="E17" s="13">
-        <f>J17+N17+R17+V17+Z17+AD17+AH17+AL17+AP17+AT17+AX17+BB17+BF17</f>
+        <f t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="F17" s="13">
-        <f>COUNTA(H17,L17,P17,T17,X17,AB17,AF17,AJ17,AN17,AR17,AV17,AZ17,BD17)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G17" s="5">
@@ -3235,7 +3175,7 @@
     </row>
     <row r="18" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="str">
-        <f>IF(D18=0," ",RANK(D18,$D$3:$D$22,0))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B18" s="9">
@@ -3243,15 +3183,15 @@
       </c>
       <c r="C18" s="41"/>
       <c r="D18" s="13">
-        <f t="shared" ref="D18:D22" si="0">I18+M18+Q18+U18+Y18+AC18+AG18+AK18+AO18+AS18+AW18+BA18+BE18</f>
+        <f t="shared" ref="D18:D22" si="4">I18+M18+Q18+U18+Y18+AC18+AG18+AK18+AO18+AS18+AW18+BA18+BE18</f>
         <v>0</v>
       </c>
       <c r="E18" s="13">
-        <f t="shared" ref="E18:E22" si="1">J18+N18+R18+V18+Z18+AD18+AH18+AL18+AP18+AT18+AX18+BB18+BF18</f>
+        <f t="shared" ref="E18:E22" si="5">J18+N18+R18+V18+Z18+AD18+AH18+AL18+AP18+AT18+AX18+BB18+BF18</f>
         <v>0</v>
       </c>
       <c r="F18" s="13">
-        <f t="shared" ref="F18:F22" si="2">COUNTA(H18,L18,P18,T18,X18,AB18,AF18,AJ18,AN18,AR18,AV18,AZ18,BD18)</f>
+        <f t="shared" ref="F18:F22" si="6">COUNTA(H18,L18,P18,T18,X18,AB18,AF18,AJ18,AN18,AR18,AV18,AZ18,BD18)</f>
         <v>0</v>
       </c>
       <c r="G18" s="6"/>
@@ -3309,7 +3249,7 @@
     </row>
     <row r="19" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A19" s="11" t="str">
-        <f>IF(D19=0," ",RANK(D19,$D$3:$D$22,0))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B19" s="9">
@@ -3317,15 +3257,15 @@
       </c>
       <c r="C19" s="12"/>
       <c r="D19" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E19" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F19" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G19" s="6"/>
@@ -3383,7 +3323,7 @@
     </row>
     <row r="20" spans="1:58" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="str">
-        <f>IF(D20=0," ",RANK(D20,$D$3:$D$22,0))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B20" s="9">
@@ -3391,15 +3331,15 @@
       </c>
       <c r="C20" s="23"/>
       <c r="D20" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E20" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F20" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G20" s="5"/>
@@ -3457,7 +3397,7 @@
     </row>
     <row r="21" spans="1:58" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="str">
-        <f>IF(D21=0," ",RANK(D21,$D$3:$D$22,0))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B21" s="9">
@@ -3465,15 +3405,15 @@
       </c>
       <c r="C21" s="39"/>
       <c r="D21" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E21" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F21" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G21" s="6"/>
@@ -3531,7 +3471,7 @@
     </row>
     <row r="22" spans="1:58" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="str">
-        <f>IF(D22=0," ",RANK(D22,$D$3:$D$22,0))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B22" s="9">
@@ -3539,15 +3479,15 @@
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="E22" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="F22" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="G22" s="6"/>
@@ -3609,17 +3549,6 @@
     <sortCondition ref="B3:B17"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="BC1:BF1"/>
     <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="O1:R1"/>
@@ -3628,6 +3557,17 @@
     <mergeCell ref="AI1:AL1"/>
     <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="C23:C1048576 C1:C2">
@@ -3655,8 +3595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H105"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M60" sqref="M60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4345,7 +4285,7 @@
         <v>11</v>
       </c>
       <c r="H37" s="1">
-        <f t="shared" ref="H37:H42" si="1">2022-C37</f>
+        <f t="shared" ref="H37:H40" si="1">2022-C37</f>
         <v>50</v>
       </c>
     </row>
@@ -4512,7 +4452,7 @@
         <v>107</v>
       </c>
       <c r="G47" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H47" s="1">
         <f>2022-C47</f>
@@ -4539,7 +4479,7 @@
         <v>107</v>
       </c>
       <c r="G48" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H48" s="1">
         <f>2022-C48</f>
@@ -4566,7 +4506,7 @@
         <v>107</v>
       </c>
       <c r="G49" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" ref="H49:H57" si="2">2022-C49</f>
@@ -4593,7 +4533,7 @@
         <v>107</v>
       </c>
       <c r="G50" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" si="2"/>
@@ -4620,7 +4560,7 @@
         <v>107</v>
       </c>
       <c r="G51" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H51" s="1">
         <f t="shared" si="2"/>
@@ -4647,7 +4587,7 @@
         <v>110</v>
       </c>
       <c r="G52" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H52" s="1">
         <f t="shared" si="2"/>
@@ -4674,7 +4614,7 @@
         <v>107</v>
       </c>
       <c r="G53" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H53" s="1">
         <f t="shared" si="2"/>
@@ -4701,7 +4641,7 @@
         <v>110</v>
       </c>
       <c r="G54" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H54" s="1">
         <f t="shared" si="2"/>
@@ -4728,7 +4668,7 @@
         <v>111</v>
       </c>
       <c r="G55" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" si="2"/>
@@ -4755,7 +4695,7 @@
         <v>110</v>
       </c>
       <c r="G56" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H56" s="1">
         <f t="shared" si="2"/>
@@ -4782,7 +4722,7 @@
         <v>111</v>
       </c>
       <c r="G57" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H57" s="1">
         <f t="shared" si="2"/>
@@ -4871,7 +4811,7 @@
         <v>114</v>
       </c>
       <c r="G64" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H64" s="1">
         <f>2022-C64</f>
@@ -4898,7 +4838,7 @@
         <v>116</v>
       </c>
       <c r="G65" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H65" s="1">
         <f>2022-C65</f>
@@ -4925,7 +4865,7 @@
         <v>114</v>
       </c>
       <c r="G66" s="1">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H66" s="1">
         <f t="shared" ref="H66" si="3">2022-C66</f>
@@ -5597,110 +5537,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="60" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52" t="s">
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="51" t="s">
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="53" t="s">
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="53" t="s">
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="53" t="s">
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="53" t="s">
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="53" t="s">
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="53" t="s">
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="52" t="s">
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52" t="s">
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52" t="s">
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="52"/>
-      <c r="BB1" s="52"/>
-      <c r="BC1" s="52" t="s">
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="BD1" s="52"/>
-      <c r="BE1" s="52"/>
-      <c r="BF1" s="52"/>
+      <c r="BD1" s="60"/>
+      <c r="BE1" s="60"/>
+      <c r="BF1" s="60"/>
     </row>
     <row r="2" spans="1:58" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
@@ -5860,7 +5800,7 @@
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
-        <f>IF(D3=0," ",RANK(D3,$D$3:$D$12,0))</f>
+        <f t="shared" ref="A3:A12" si="0">IF(D3=0," ",RANK(D3,$D$3:$D$12,0))</f>
         <v>1</v>
       </c>
       <c r="B3" s="9">
@@ -5870,12 +5810,12 @@
         <v>115</v>
       </c>
       <c r="D3" s="13">
-        <f>I3+M3+Q3+U3+Y3+AC3+AG3+AK3+AO3+AS3+AW3+BA3+BE3</f>
-        <v>109.5</v>
+        <f t="shared" ref="D3:E6" si="1">I3+M3+Q3+U3+Y3+AC3+AG3+AK3+AO3+AS3+AW3+BA3+BE3</f>
+        <v>110</v>
       </c>
       <c r="E3" s="13">
-        <f>J3+N3+R3+V3+Z3+AD3+AH3+AL3+AP3+AT3+AX3+BB3+BF3</f>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
       <c r="F3" s="13">
         <f>COUNTA(H3,L3,P3,T3,X3,AB3,AF3,AJ3,AN3,AR3,AV3,AZ3,BD3)</f>
@@ -5891,11 +5831,11 @@
       </c>
       <c r="I3" s="6">
         <f>VLOOKUP(H3,Баллы!$A$2:$B$101,2)+J3/2</f>
-        <v>109.5</v>
+        <v>110</v>
       </c>
       <c r="J3" s="6">
         <f>VLOOKUP(C3,'1'!B13:H113,6,FALSE)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="6"/>
@@ -5948,7 +5888,7 @@
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
-        <f>IF(D4=0," ",RANK(D4,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="9">
@@ -5958,11 +5898,11 @@
         <v>73</v>
       </c>
       <c r="D4" s="13">
-        <f>I4+M4+Q4+U4+Y4+AC4+AG4+AK4+AO4+AS4+AW4+BA4+BE4</f>
+        <f t="shared" si="1"/>
         <v>105.5</v>
       </c>
       <c r="E4" s="13">
-        <f>J4+N4+R4+V4+Z4+AD4+AH4+AL4+AP4+AT4+AX4+BB4+BF4</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F4" s="13">
@@ -6036,7 +5976,7 @@
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
-        <f>IF(D5=0," ",RANK(D5,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="9">
@@ -6046,11 +5986,11 @@
         <v>101</v>
       </c>
       <c r="D5" s="13">
-        <f>I5+M5+Q5+U5+Y5+AC5+AG5+AK5+AO5+AS5+AW5+BA5+BE5</f>
+        <f t="shared" si="1"/>
         <v>102.5</v>
       </c>
       <c r="E5" s="13">
-        <f>J5+N5+R5+V5+Z5+AD5+AH5+AL5+AP5+AT5+AX5+BB5+BF5</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F5" s="13">
@@ -6124,7 +6064,7 @@
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
-        <f>IF(D6=0," ",RANK(D6,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="9">
@@ -6134,11 +6074,11 @@
         <v>68</v>
       </c>
       <c r="D6" s="13">
-        <f>I6+M6+Q6+U6+Y6+AC6+AG6+AK6+AO6+AS6+AW6+BA6+BE6</f>
+        <f t="shared" si="1"/>
         <v>94.5</v>
       </c>
       <c r="E6" s="13">
-        <f>J6+N6+R6+V6+Z6+AD6+AH6+AL6+AP6+AT6+AX6+BB6+BF6</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F6" s="13">
@@ -6212,7 +6152,7 @@
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="str">
-        <f>IF(D7=0," ",RANK(D7,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B7" s="9">
@@ -6220,15 +6160,15 @@
       </c>
       <c r="C7" s="12"/>
       <c r="D7" s="13">
-        <f t="shared" ref="D4:D12" si="0">I7+M7+Q7+U7+Y7+AC7+AG7+AK7+AO7+AS7+AW7+BA7+BE7</f>
+        <f t="shared" ref="D7:D12" si="2">I7+M7+Q7+U7+Y7+AC7+AG7+AK7+AO7+AS7+AW7+BA7+BE7</f>
         <v>0</v>
       </c>
       <c r="E7" s="13">
-        <f t="shared" ref="E4:E12" si="1">J7+N7+R7+V7+Z7+AD7+AH7+AL7+AP7+AT7+AX7+BB7+BF7</f>
+        <f t="shared" ref="E7:E12" si="3">J7+N7+R7+V7+Z7+AD7+AH7+AL7+AP7+AT7+AX7+BB7+BF7</f>
         <v>0</v>
       </c>
       <c r="F7" s="13">
-        <f t="shared" ref="F4:F12" si="2">COUNTA(H7,L7,P7,T7,X7,AB7,AF7,AJ7,AN7,AR7,AV7,AZ7,BD7)</f>
+        <f t="shared" ref="F7:F12" si="4">COUNTA(H7,L7,P7,T7,X7,AB7,AF7,AJ7,AN7,AR7,AV7,AZ7,BD7)</f>
         <v>0</v>
       </c>
       <c r="G7" s="4"/>
@@ -6286,7 +6226,7 @@
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="str">
-        <f>IF(D8=0," ",RANK(D8,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B8" s="9">
@@ -6294,15 +6234,15 @@
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E8" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F8" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G8" s="4"/>
@@ -6360,7 +6300,7 @@
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="str">
-        <f>IF(D9=0," ",RANK(D9,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B9" s="9">
@@ -6368,15 +6308,15 @@
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E9" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F9" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G9" s="4"/>
@@ -6434,7 +6374,7 @@
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="str">
-        <f>IF(D10=0," ",RANK(D10,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B10" s="9">
@@ -6442,15 +6382,15 @@
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E10" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F10" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G10" s="4"/>
@@ -6508,7 +6448,7 @@
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="str">
-        <f>IF(D11=0," ",RANK(D11,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B11" s="9">
@@ -6516,15 +6456,15 @@
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E11" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F11" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G11" s="4"/>
@@ -6582,7 +6522,7 @@
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="str">
-        <f>IF(D12=0," ",RANK(D12,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B12" s="9">
@@ -6590,15 +6530,15 @@
       </c>
       <c r="C12" s="39"/>
       <c r="D12" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E12" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F12" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="G12" s="4"/>
@@ -6681,12 +6621,6 @@
     <sortCondition ref="B3:B6"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="BC1:BF1"/>
     <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="A1:A2"/>
@@ -6700,6 +6634,12 @@
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="S1:V1"/>
     <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AQ1:AT1"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="C1:C2 C13:C1048576">
@@ -6764,110 +6704,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52" t="s">
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="51" t="s">
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="53" t="s">
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="53" t="s">
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="53" t="s">
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="53" t="s">
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="53" t="s">
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="53" t="s">
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="52" t="s">
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52" t="s">
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52" t="s">
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="52"/>
-      <c r="BB1" s="52"/>
-      <c r="BC1" s="52" t="s">
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="BD1" s="52"/>
-      <c r="BE1" s="52"/>
-      <c r="BF1" s="52"/>
+      <c r="BD1" s="60"/>
+      <c r="BE1" s="60"/>
+      <c r="BF1" s="60"/>
     </row>
     <row r="2" spans="1:58" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
@@ -7027,7 +6967,7 @@
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
-        <f>IF(D3=0," ",RANK(D3,$D$3:$D$12,0))</f>
+        <f t="shared" ref="A3:A12" si="0">IF(D3=0," ",RANK(D3,$D$3:$D$12,0))</f>
         <v>1</v>
       </c>
       <c r="B3" s="9">
@@ -7037,15 +6977,15 @@
         <v>109</v>
       </c>
       <c r="D3" s="13">
-        <f>I3+M3+Q3+U3+Y3+AC3+AG3+AK3+AO3+AS3+AW3+BA3+BE3</f>
-        <v>101.5</v>
+        <f t="shared" ref="D3:E10" si="1">I3+M3+Q3+U3+Y3+AC3+AG3+AK3+AO3+AS3+AW3+BA3+BE3</f>
+        <v>102</v>
       </c>
       <c r="E3" s="13">
-        <f>J3+N3+R3+V3+Z3+AD3+AH3+AL3+AP3+AT3+AX3+BB3+BF3</f>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
       <c r="F3" s="13">
-        <f>COUNTA(H3,L3,P3,T3,X3,AB3,AF3,AJ3,AN3,AR3,AV3,AZ3,BD3)</f>
+        <f t="shared" ref="F3:F10" si="2">COUNTA(H3,L3,P3,T3,X3,AB3,AF3,AJ3,AN3,AR3,AV3,AZ3,BD3)</f>
         <v>1</v>
       </c>
       <c r="G3" s="5">
@@ -7058,11 +6998,11 @@
       </c>
       <c r="I3" s="6">
         <f>VLOOKUP(H3,Баллы!$A$2:$B$101,2)+J3/2</f>
-        <v>101.5</v>
+        <v>102</v>
       </c>
       <c r="J3" s="6">
         <f>VLOOKUP(C3,'1'!B15:H115,6,FALSE)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="6"/>
@@ -7115,7 +7055,7 @@
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
-        <f>IF(D4=0," ",RANK(D4,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="9">
@@ -7125,15 +7065,15 @@
         <v>96</v>
       </c>
       <c r="D4" s="13">
-        <f>I4+M4+Q4+U4+Y4+AC4+AG4+AK4+AO4+AS4+AW4+BA4+BE4</f>
+        <f t="shared" si="1"/>
         <v>98.5</v>
       </c>
       <c r="E4" s="13">
-        <f>J4+N4+R4+V4+Z4+AD4+AH4+AL4+AP4+AT4+AX4+BB4+BF4</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F4" s="13">
-        <f>COUNTA(H4,L4,P4,T4,X4,AB4,AF4,AJ4,AN4,AR4,AV4,AZ4,BD4)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G4" s="5">
@@ -7203,7 +7143,7 @@
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
-        <f>IF(D5=0," ",RANK(D5,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="9">
@@ -7213,15 +7153,15 @@
         <v>27</v>
       </c>
       <c r="D5" s="13">
-        <f>I5+M5+Q5+U5+Y5+AC5+AG5+AK5+AO5+AS5+AW5+BA5+BE5</f>
-        <v>97.5</v>
+        <f t="shared" si="1"/>
+        <v>98</v>
       </c>
       <c r="E5" s="13">
-        <f>J5+N5+R5+V5+Z5+AD5+AH5+AL5+AP5+AT5+AX5+BB5+BF5</f>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
       <c r="F5" s="13">
-        <f>COUNTA(H5,L5,P5,T5,X5,AB5,AF5,AJ5,AN5,AR5,AV5,AZ5,BD5)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G5" s="5">
@@ -7234,11 +7174,11 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP(H5,Баллы!$A$2:$B$101,2)+J5/2</f>
-        <v>97.5</v>
+        <v>98</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP(C5,'1'!B16:H116,6,FALSE)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="6"/>
@@ -7291,7 +7231,7 @@
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
-        <f>IF(D6=0," ",RANK(D6,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="9">
@@ -7301,15 +7241,15 @@
         <v>42</v>
       </c>
       <c r="D6" s="13">
-        <f>I6+M6+Q6+U6+Y6+AC6+AG6+AK6+AO6+AS6+AW6+BA6+BE6</f>
-        <v>93.5</v>
+        <f t="shared" si="1"/>
+        <v>94</v>
       </c>
       <c r="E6" s="13">
-        <f>J6+N6+R6+V6+Z6+AD6+AH6+AL6+AP6+AT6+AX6+BB6+BF6</f>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
       <c r="F6" s="13">
-        <f>COUNTA(H6,L6,P6,T6,X6,AB6,AF6,AJ6,AN6,AR6,AV6,AZ6,BD6)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G6" s="5">
@@ -7322,11 +7262,11 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP(H6,Баллы!$A$2:$B$101,2)+J6/2</f>
-        <v>93.5</v>
+        <v>94</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP(C6,'1'!B17:H117,6,FALSE)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="6"/>
@@ -7379,7 +7319,7 @@
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
-        <f>IF(D7=0," ",RANK(D7,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="9">
@@ -7389,15 +7329,15 @@
         <v>34</v>
       </c>
       <c r="D7" s="13">
-        <f>I7+M7+Q7+U7+Y7+AC7+AG7+AK7+AO7+AS7+AW7+BA7+BE7</f>
+        <f t="shared" si="1"/>
         <v>86.5</v>
       </c>
       <c r="E7" s="13">
-        <f>J7+N7+R7+V7+Z7+AD7+AH7+AL7+AP7+AT7+AX7+BB7+BF7</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F7" s="13">
-        <f>COUNTA(H7,L7,P7,T7,X7,AB7,AF7,AJ7,AN7,AR7,AV7,AZ7,BD7)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G7" s="5">
@@ -7467,7 +7407,7 @@
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
-        <f>IF(D8=0," ",RANK(D8,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="9">
@@ -7477,15 +7417,15 @@
         <v>54</v>
       </c>
       <c r="D8" s="13">
-        <f>I8+M8+Q8+U8+Y8+AC8+AG8+AK8+AO8+AS8+AW8+BA8+BE8</f>
+        <f t="shared" si="1"/>
         <v>83.5</v>
       </c>
       <c r="E8" s="13">
-        <f>J8+N8+R8+V8+Z8+AD8+AH8+AL8+AP8+AT8+AX8+BB8+BF8</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F8" s="13">
-        <f>COUNTA(H8,L8,P8,T8,X8,AB8,AF8,AJ8,AN8,AR8,AV8,AZ8,BD8)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G8" s="5">
@@ -7555,7 +7495,7 @@
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
-        <f>IF(D9=0," ",RANK(D9,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="9">
@@ -7565,15 +7505,15 @@
         <v>97</v>
       </c>
       <c r="D9" s="13">
-        <f>I9+M9+Q9+U9+Y9+AC9+AG9+AK9+AO9+AS9+AW9+BA9+BE9</f>
+        <f t="shared" si="1"/>
         <v>82.5</v>
       </c>
       <c r="E9" s="13">
-        <f>J9+N9+R9+V9+Z9+AD9+AH9+AL9+AP9+AT9+AX9+BB9+BF9</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F9" s="13">
-        <f>COUNTA(H9,L9,P9,T9,X9,AB9,AF9,AJ9,AN9,AR9,AV9,AZ9,BD9)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G9" s="5">
@@ -7643,7 +7583,7 @@
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A10" s="11">
-        <f>IF(D10=0," ",RANK(D10,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="9">
@@ -7653,15 +7593,15 @@
         <v>0</v>
       </c>
       <c r="D10" s="13">
-        <f>I10+M10+Q10+U10+Y10+AC10+AG10+AK10+AO10+AS10+AW10+BA10+BE10</f>
+        <f t="shared" si="1"/>
         <v>81.5</v>
       </c>
       <c r="E10" s="13">
-        <f>J10+N10+R10+V10+Z10+AD10+AH10+AL10+AP10+AT10+AX10+BB10+BF10</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F10" s="13">
-        <f>COUNTA(H10,L10,P10,T10,X10,AB10,AF10,AJ10,AN10,AR10,AV10,AZ10,BD10)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G10" s="5">
@@ -7731,7 +7671,7 @@
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="str">
-        <f>IF(D11=0," ",RANK(D11,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B11" s="9">
@@ -7739,15 +7679,15 @@
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="13">
-        <f t="shared" ref="D4:D12" si="0">I11+M11+Q11+U11+Y11+AC11+AG11+AK11+AO11+AS11+AW11+BA11+BE11</f>
+        <f t="shared" ref="D11:D12" si="3">I11+M11+Q11+U11+Y11+AC11+AG11+AK11+AO11+AS11+AW11+BA11+BE11</f>
         <v>0</v>
       </c>
       <c r="E11" s="13">
-        <f t="shared" ref="E4:E12" si="1">J11+N11+R11+V11+Z11+AD11+AH11+AL11+AP11+AT11+AX11+BB11+BF11</f>
+        <f t="shared" ref="E11:E12" si="4">J11+N11+R11+V11+Z11+AD11+AH11+AL11+AP11+AT11+AX11+BB11+BF11</f>
         <v>0</v>
       </c>
       <c r="F11" s="13">
-        <f t="shared" ref="F4:F12" si="2">COUNTA(H11,L11,P11,T11,X11,AB11,AF11,AJ11,AN11,AR11,AV11,AZ11,BD11)</f>
+        <f t="shared" ref="F11:F12" si="5">COUNTA(H11,L11,P11,T11,X11,AB11,AF11,AJ11,AN11,AR11,AV11,AZ11,BD11)</f>
         <v>0</v>
       </c>
       <c r="G11" s="5"/>
@@ -7805,7 +7745,7 @@
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="str">
-        <f>IF(D12=0," ",RANK(D12,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B12" s="9">
@@ -7813,15 +7753,15 @@
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E12" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F12" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G12" s="5"/>
@@ -7883,12 +7823,6 @@
     <sortCondition ref="B3:B10"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="BC1:BF1"/>
     <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="A1:A2"/>
@@ -7902,6 +7836,12 @@
     <mergeCell ref="O1:R1"/>
     <mergeCell ref="S1:V1"/>
     <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AQ1:AT1"/>
   </mergeCells>
   <conditionalFormatting sqref="B13:B1048576 B1:B2">
     <cfRule type="duplicateValues" dxfId="27" priority="62"/>
@@ -7972,110 +7912,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52" t="s">
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="51" t="s">
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="53" t="s">
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="53" t="s">
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="53" t="s">
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="53" t="s">
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="53" t="s">
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="53" t="s">
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="52" t="s">
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52" t="s">
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52" t="s">
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="52"/>
-      <c r="BB1" s="52"/>
-      <c r="BC1" s="52" t="s">
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="BD1" s="52"/>
-      <c r="BE1" s="52"/>
-      <c r="BF1" s="52"/>
+      <c r="BD1" s="60"/>
+      <c r="BE1" s="60"/>
+      <c r="BF1" s="60"/>
     </row>
     <row r="2" spans="1:58" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
@@ -8235,7 +8175,7 @@
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
-        <f>IF(D3=0," ",RANK(D3,$D$3:$D$12,0))</f>
+        <f t="shared" ref="A3:A12" si="0">IF(D3=0," ",RANK(D3,$D$3:$D$12,0))</f>
         <v>1</v>
       </c>
       <c r="B3" s="9">
@@ -8245,15 +8185,15 @@
         <v>113</v>
       </c>
       <c r="D3" s="13">
-        <f>I3+M3+Q3+U3+Y3+AC3+AG3+AK3+AO3+AS3+AW3+BA3+BE3</f>
-        <v>112.5</v>
+        <f t="shared" ref="D3:E8" si="1">I3+M3+Q3+U3+Y3+AC3+AG3+AK3+AO3+AS3+AW3+BA3+BE3</f>
+        <v>113</v>
       </c>
       <c r="E3" s="13">
-        <f>J3+N3+R3+V3+Z3+AD3+AH3+AL3+AP3+AT3+AX3+BB3+BF3</f>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
       <c r="F3" s="13">
-        <f>COUNTA(H3,L3,P3,T3,X3,AB3,AF3,AJ3,AN3,AR3,AV3,AZ3,BD3)</f>
+        <f t="shared" ref="F3:F8" si="2">COUNTA(H3,L3,P3,T3,X3,AB3,AF3,AJ3,AN3,AR3,AV3,AZ3,BD3)</f>
         <v>1</v>
       </c>
       <c r="G3" s="5">
@@ -8266,11 +8206,11 @@
       </c>
       <c r="I3" s="6">
         <f>VLOOKUP(H3,Баллы!$A$2:$B$101,2)+J3/2</f>
-        <v>112.5</v>
+        <v>113</v>
       </c>
       <c r="J3" s="6">
         <f>VLOOKUP(C3,'1'!B14:H114,6,FALSE)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -8323,7 +8263,7 @@
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
-        <f>IF(D4=0," ",RANK(D4,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="9">
@@ -8333,15 +8273,15 @@
         <v>62</v>
       </c>
       <c r="D4" s="13">
-        <f>I4+M4+Q4+U4+Y4+AC4+AG4+AK4+AO4+AS4+AW4+BA4+BE4</f>
-        <v>107.5</v>
+        <f t="shared" si="1"/>
+        <v>108</v>
       </c>
       <c r="E4" s="13">
-        <f>J4+N4+R4+V4+Z4+AD4+AH4+AL4+AP4+AT4+AX4+BB4+BF4</f>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
       <c r="F4" s="13">
-        <f>COUNTA(H4,L4,P4,T4,X4,AB4,AF4,AJ4,AN4,AR4,AV4,AZ4,BD4)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G4" s="5">
@@ -8354,11 +8294,11 @@
       </c>
       <c r="I4" s="6">
         <f>VLOOKUP(H4,Баллы!$A$2:$B$101,2)+J4/2</f>
-        <v>107.5</v>
+        <v>108</v>
       </c>
       <c r="J4" s="6">
         <f>VLOOKUP(C4,'1'!B15:H115,6,FALSE)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="6"/>
@@ -8411,7 +8351,7 @@
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
-        <f>IF(D5=0," ",RANK(D5,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="9">
@@ -8421,15 +8361,15 @@
         <v>103</v>
       </c>
       <c r="D5" s="13">
-        <f>I5+M5+Q5+U5+Y5+AC5+AG5+AK5+AO5+AS5+AW5+BA5+BE5</f>
+        <f t="shared" si="1"/>
         <v>98.5</v>
       </c>
       <c r="E5" s="13">
-        <f>J5+N5+R5+V5+Z5+AD5+AH5+AL5+AP5+AT5+AX5+BB5+BF5</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F5" s="13">
-        <f>COUNTA(H5,L5,P5,T5,X5,AB5,AF5,AJ5,AN5,AR5,AV5,AZ5,BD5)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G5" s="5">
@@ -8499,7 +8439,7 @@
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
-        <f>IF(D6=0," ",RANK(D6,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="9">
@@ -8509,15 +8449,15 @@
         <v>67</v>
       </c>
       <c r="D6" s="13">
-        <f>I6+M6+Q6+U6+Y6+AC6+AG6+AK6+AO6+AS6+AW6+BA6+BE6</f>
+        <f t="shared" si="1"/>
         <v>96.5</v>
       </c>
       <c r="E6" s="13">
-        <f>J6+N6+R6+V6+Z6+AD6+AH6+AL6+AP6+AT6+AX6+BB6+BF6</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F6" s="13">
-        <f>COUNTA(H6,L6,P6,T6,X6,AB6,AF6,AJ6,AN6,AR6,AV6,AZ6,BD6)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G6" s="5">
@@ -8587,25 +8527,25 @@
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
-        <f>IF(D7=0," ",RANK(D7,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="9">
         <v>5</v>
       </c>
-      <c r="C7" s="64" t="s">
+      <c r="C7" s="56" t="s">
         <v>45</v>
       </c>
       <c r="D7" s="13">
-        <f>I7+M7+Q7+U7+Y7+AC7+AG7+AK7+AO7+AS7+AW7+BA7+BE7</f>
-        <v>95.5</v>
+        <f t="shared" si="1"/>
+        <v>96</v>
       </c>
       <c r="E7" s="13">
-        <f>J7+N7+R7+V7+Z7+AD7+AH7+AL7+AP7+AT7+AX7+BB7+BF7</f>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
       <c r="F7" s="13">
-        <f>COUNTA(H7,L7,P7,T7,X7,AB7,AF7,AJ7,AN7,AR7,AV7,AZ7,BD7)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G7" s="5">
@@ -8618,11 +8558,11 @@
       </c>
       <c r="I7" s="6">
         <f>VLOOKUP(H7,Баллы!$A$2:$B$101,2)+J7/2</f>
-        <v>95.5</v>
+        <v>96</v>
       </c>
       <c r="J7" s="6">
         <f>VLOOKUP(C7,'1'!B12:H112,6,FALSE)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="6"/>
@@ -8675,7 +8615,7 @@
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
-        <f>IF(D8=0," ",RANK(D8,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="9">
@@ -8685,15 +8625,15 @@
         <v>23</v>
       </c>
       <c r="D8" s="13">
-        <f>I8+M8+Q8+U8+Y8+AC8+AG8+AK8+AO8+AS8+AW8+BA8+BE8</f>
-        <v>92.5</v>
+        <f t="shared" si="1"/>
+        <v>93</v>
       </c>
       <c r="E8" s="13">
-        <f>J8+N8+R8+V8+Z8+AD8+AH8+AL8+AP8+AT8+AX8+BB8+BF8</f>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
       <c r="F8" s="13">
-        <f>COUNTA(H8,L8,P8,T8,X8,AB8,AF8,AJ8,AN8,AR8,AV8,AZ8,BD8)</f>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="G8" s="5">
@@ -8706,11 +8646,11 @@
       </c>
       <c r="I8" s="6">
         <f>VLOOKUP(H8,Баллы!$A$2:$B$101,2)+J8/2</f>
-        <v>92.5</v>
+        <v>93</v>
       </c>
       <c r="J8" s="6">
         <f>VLOOKUP(C8,'1'!B13:H113,6,FALSE)</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="6"/>
@@ -8763,7 +8703,7 @@
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="str">
-        <f>IF(D9=0," ",RANK(D9,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B9" s="9">
@@ -8771,15 +8711,15 @@
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13">
-        <f t="shared" ref="D4:D12" si="0">I9+M9+Q9+U9+Y9+AC9+AG9+AK9+AO9+AS9+AW9+BA9+BE9</f>
+        <f t="shared" ref="D9:D12" si="3">I9+M9+Q9+U9+Y9+AC9+AG9+AK9+AO9+AS9+AW9+BA9+BE9</f>
         <v>0</v>
       </c>
       <c r="E9" s="13">
-        <f t="shared" ref="E4:E12" si="1">J9+N9+R9+V9+Z9+AD9+AH9+AL9+AP9+AT9+AX9+BB9+BF9</f>
+        <f t="shared" ref="E9:E12" si="4">J9+N9+R9+V9+Z9+AD9+AH9+AL9+AP9+AT9+AX9+BB9+BF9</f>
         <v>0</v>
       </c>
       <c r="F9" s="13">
-        <f t="shared" ref="F4:F12" si="2">COUNTA(H9,L9,P9,T9,X9,AB9,AF9,AJ9,AN9,AR9,AV9,AZ9,BD9)</f>
+        <f t="shared" ref="F9:F12" si="5">COUNTA(H9,L9,P9,T9,X9,AB9,AF9,AJ9,AN9,AR9,AV9,AZ9,BD9)</f>
         <v>0</v>
       </c>
       <c r="G9" s="5"/>
@@ -8837,7 +8777,7 @@
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="str">
-        <f>IF(D10=0," ",RANK(D10,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B10" s="9">
@@ -8845,15 +8785,15 @@
       </c>
       <c r="C10" s="26"/>
       <c r="D10" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E10" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F10" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G10" s="5"/>
@@ -8911,7 +8851,7 @@
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="str">
-        <f>IF(D11=0," ",RANK(D11,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B11" s="9">
@@ -8919,15 +8859,15 @@
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E11" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F11" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G11" s="5"/>
@@ -8985,7 +8925,7 @@
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="str">
-        <f>IF(D12=0," ",RANK(D12,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B12" s="9">
@@ -8993,15 +8933,15 @@
       </c>
       <c r="C12" s="25"/>
       <c r="D12" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E12" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="F12" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G12" s="5"/>
@@ -9063,16 +9003,6 @@
     <sortCondition ref="B3:B8"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="BC1:BF1"/>
     <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="AQ1:AT1"/>
@@ -9082,6 +9012,16 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="C13:C1048576 C1:C2">
     <cfRule type="duplicateValues" dxfId="22" priority="59"/>
@@ -9152,110 +9092,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52" t="s">
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="51" t="s">
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="53" t="s">
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="53" t="s">
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="53" t="s">
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="53" t="s">
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="53" t="s">
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="53" t="s">
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="52" t="s">
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52" t="s">
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52" t="s">
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="52"/>
-      <c r="BB1" s="52"/>
-      <c r="BC1" s="52" t="s">
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="BD1" s="52"/>
-      <c r="BE1" s="52"/>
-      <c r="BF1" s="52"/>
+      <c r="BD1" s="60"/>
+      <c r="BE1" s="60"/>
+      <c r="BF1" s="60"/>
     </row>
     <row r="2" spans="1:58" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
@@ -9415,7 +9355,7 @@
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
-        <f>IF(D3=0," ",RANK(D3,$D$3:$D$12,0))</f>
+        <f t="shared" ref="A3:A12" si="0">IF(D3=0," ",RANK(D3,$D$3:$D$12,0))</f>
         <v>1</v>
       </c>
       <c r="B3" s="9">
@@ -9425,12 +9365,12 @@
         <v>45</v>
       </c>
       <c r="D3" s="13">
-        <f>I3+M3+Q3+U3+Y3+AC3+AG3+AK3+AO3+AS3+AW3+BA3+BE3</f>
-        <v>95.5</v>
+        <f t="shared" ref="D3:E6" si="1">I3+M3+Q3+U3+Y3+AC3+AG3+AK3+AO3+AS3+AW3+BA3+BE3</f>
+        <v>96</v>
       </c>
       <c r="E3" s="13">
-        <f>J3+N3+R3+V3+Z3+AD3+AH3+AL3+AP3+AT3+AX3+BB3+BF3</f>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
       <c r="F3" s="13">
         <f>COUNTA(H3,L3,P3,T3,X3,AB3,AF3,AJ3,AN3,AR3,AV3,AZ3,BD3)</f>
@@ -9446,64 +9386,64 @@
       </c>
       <c r="I3" s="6">
         <f>VLOOKUP(H3,Баллы!$A$2:$B$101,2)+J3/2</f>
-        <v>95.5</v>
+        <v>96</v>
       </c>
       <c r="J3" s="6">
         <f>VLOOKUP(C3,'1'!B12:H112,6,FALSE)</f>
-        <v>25</v>
-      </c>
-      <c r="K3" s="59"/>
-      <c r="L3" s="60"/>
-      <c r="M3" s="60"/>
-      <c r="N3" s="60"/>
-      <c r="O3" s="63"/>
-      <c r="P3" s="62"/>
-      <c r="Q3" s="62"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="59"/>
-      <c r="T3" s="60"/>
-      <c r="U3" s="60"/>
-      <c r="V3" s="60"/>
-      <c r="W3" s="59"/>
-      <c r="X3" s="60"/>
-      <c r="Y3" s="60"/>
-      <c r="Z3" s="60"/>
-      <c r="AA3" s="59"/>
-      <c r="AB3" s="60"/>
-      <c r="AC3" s="60"/>
-      <c r="AD3" s="60"/>
-      <c r="AE3" s="61"/>
-      <c r="AF3" s="62"/>
-      <c r="AG3" s="62"/>
-      <c r="AH3" s="62"/>
-      <c r="AI3" s="61"/>
-      <c r="AJ3" s="62"/>
-      <c r="AK3" s="62"/>
-      <c r="AL3" s="62"/>
-      <c r="AM3" s="61"/>
-      <c r="AN3" s="62"/>
-      <c r="AO3" s="62"/>
-      <c r="AP3" s="62"/>
-      <c r="AQ3" s="61"/>
-      <c r="AR3" s="62"/>
-      <c r="AS3" s="62"/>
-      <c r="AT3" s="62"/>
-      <c r="AU3" s="59"/>
-      <c r="AV3" s="60"/>
-      <c r="AW3" s="60"/>
-      <c r="AX3" s="60"/>
-      <c r="AY3" s="59"/>
-      <c r="AZ3" s="60"/>
-      <c r="BA3" s="60"/>
-      <c r="BB3" s="60"/>
-      <c r="BC3" s="59"/>
-      <c r="BD3" s="60"/>
-      <c r="BE3" s="60"/>
-      <c r="BF3" s="60"/>
+        <v>26</v>
+      </c>
+      <c r="K3" s="51"/>
+      <c r="L3" s="52"/>
+      <c r="M3" s="52"/>
+      <c r="N3" s="52"/>
+      <c r="O3" s="55"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="51"/>
+      <c r="T3" s="52"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="52"/>
+      <c r="W3" s="51"/>
+      <c r="X3" s="52"/>
+      <c r="Y3" s="52"/>
+      <c r="Z3" s="52"/>
+      <c r="AA3" s="51"/>
+      <c r="AB3" s="52"/>
+      <c r="AC3" s="52"/>
+      <c r="AD3" s="52"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="53"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="53"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="53"/>
+      <c r="AR3" s="54"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="51"/>
+      <c r="AV3" s="52"/>
+      <c r="AW3" s="52"/>
+      <c r="AX3" s="52"/>
+      <c r="AY3" s="51"/>
+      <c r="AZ3" s="52"/>
+      <c r="BA3" s="52"/>
+      <c r="BB3" s="52"/>
+      <c r="BC3" s="51"/>
+      <c r="BD3" s="52"/>
+      <c r="BE3" s="52"/>
+      <c r="BF3" s="52"/>
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
-        <f>IF(D4=0," ",RANK(D4,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="9">
@@ -9513,11 +9453,11 @@
         <v>71</v>
       </c>
       <c r="D4" s="13">
-        <f>I4+M4+Q4+U4+Y4+AC4+AG4+AK4+AO4+AS4+AW4+BA4+BE4</f>
+        <f t="shared" si="1"/>
         <v>94.5</v>
       </c>
       <c r="E4" s="13">
-        <f>J4+N4+R4+V4+Z4+AD4+AH4+AL4+AP4+AT4+AX4+BB4+BF4</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F4" s="13">
@@ -9540,58 +9480,58 @@
         <f>VLOOKUP(C4,'1'!B10:H110,6,FALSE)</f>
         <v>11</v>
       </c>
-      <c r="K4" s="59"/>
-      <c r="L4" s="60"/>
-      <c r="M4" s="60"/>
-      <c r="N4" s="60"/>
-      <c r="O4" s="59"/>
-      <c r="P4" s="60"/>
-      <c r="Q4" s="60"/>
-      <c r="R4" s="60"/>
-      <c r="S4" s="59"/>
-      <c r="T4" s="60"/>
-      <c r="U4" s="60"/>
-      <c r="V4" s="60"/>
-      <c r="W4" s="59"/>
-      <c r="X4" s="60"/>
-      <c r="Y4" s="60"/>
-      <c r="Z4" s="60"/>
-      <c r="AA4" s="59"/>
-      <c r="AB4" s="60"/>
-      <c r="AC4" s="60"/>
-      <c r="AD4" s="60"/>
-      <c r="AE4" s="61"/>
-      <c r="AF4" s="62"/>
-      <c r="AG4" s="62"/>
-      <c r="AH4" s="62"/>
-      <c r="AI4" s="61"/>
-      <c r="AJ4" s="62"/>
-      <c r="AK4" s="62"/>
-      <c r="AL4" s="62"/>
-      <c r="AM4" s="61"/>
-      <c r="AN4" s="62"/>
-      <c r="AO4" s="62"/>
-      <c r="AP4" s="62"/>
-      <c r="AQ4" s="59"/>
-      <c r="AR4" s="60"/>
-      <c r="AS4" s="60"/>
-      <c r="AT4" s="60"/>
-      <c r="AU4" s="59"/>
-      <c r="AV4" s="60"/>
-      <c r="AW4" s="60"/>
-      <c r="AX4" s="60"/>
-      <c r="AY4" s="59"/>
-      <c r="AZ4" s="60"/>
-      <c r="BA4" s="60"/>
-      <c r="BB4" s="60"/>
-      <c r="BC4" s="59"/>
-      <c r="BD4" s="60"/>
-      <c r="BE4" s="60"/>
-      <c r="BF4" s="60"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="52"/>
+      <c r="M4" s="52"/>
+      <c r="N4" s="52"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="52"/>
+      <c r="Q4" s="52"/>
+      <c r="R4" s="52"/>
+      <c r="S4" s="51"/>
+      <c r="T4" s="52"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="52"/>
+      <c r="W4" s="51"/>
+      <c r="X4" s="52"/>
+      <c r="Y4" s="52"/>
+      <c r="Z4" s="52"/>
+      <c r="AA4" s="51"/>
+      <c r="AB4" s="52"/>
+      <c r="AC4" s="52"/>
+      <c r="AD4" s="52"/>
+      <c r="AE4" s="53"/>
+      <c r="AF4" s="54"/>
+      <c r="AG4" s="54"/>
+      <c r="AH4" s="54"/>
+      <c r="AI4" s="53"/>
+      <c r="AJ4" s="54"/>
+      <c r="AK4" s="54"/>
+      <c r="AL4" s="54"/>
+      <c r="AM4" s="53"/>
+      <c r="AN4" s="54"/>
+      <c r="AO4" s="54"/>
+      <c r="AP4" s="54"/>
+      <c r="AQ4" s="51"/>
+      <c r="AR4" s="52"/>
+      <c r="AS4" s="52"/>
+      <c r="AT4" s="52"/>
+      <c r="AU4" s="51"/>
+      <c r="AV4" s="52"/>
+      <c r="AW4" s="52"/>
+      <c r="AX4" s="52"/>
+      <c r="AY4" s="51"/>
+      <c r="AZ4" s="52"/>
+      <c r="BA4" s="52"/>
+      <c r="BB4" s="52"/>
+      <c r="BC4" s="51"/>
+      <c r="BD4" s="52"/>
+      <c r="BE4" s="52"/>
+      <c r="BF4" s="52"/>
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
-        <f>IF(D5=0," ",RANK(D5,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="9">
@@ -9601,12 +9541,12 @@
         <v>23</v>
       </c>
       <c r="D5" s="13">
-        <f>I5+M5+Q5+U5+Y5+AC5+AG5+AK5+AO5+AS5+AW5+BA5+BE5</f>
-        <v>92.5</v>
+        <f t="shared" si="1"/>
+        <v>93</v>
       </c>
       <c r="E5" s="13">
-        <f>J5+N5+R5+V5+Z5+AD5+AH5+AL5+AP5+AT5+AX5+BB5+BF5</f>
-        <v>25</v>
+        <f t="shared" si="1"/>
+        <v>26</v>
       </c>
       <c r="F5" s="13">
         <f>COUNTA(H5,L5,P5,T5,X5,AB5,AF5,AJ5,AN5,AR5,AV5,AZ5,BD5)</f>
@@ -9622,64 +9562,64 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP(H5,Баллы!$A$2:$B$101,2)+J5/2</f>
-        <v>92.5</v>
+        <v>93</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP(C5,'1'!B13:H113,6,FALSE)</f>
-        <v>25</v>
-      </c>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="62"/>
-      <c r="N5" s="62"/>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="59"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="60"/>
-      <c r="W5" s="59"/>
-      <c r="X5" s="60"/>
-      <c r="Y5" s="60"/>
-      <c r="Z5" s="60"/>
-      <c r="AA5" s="59"/>
-      <c r="AB5" s="60"/>
-      <c r="AC5" s="60"/>
-      <c r="AD5" s="60"/>
-      <c r="AE5" s="61"/>
-      <c r="AF5" s="62"/>
-      <c r="AG5" s="62"/>
-      <c r="AH5" s="62"/>
-      <c r="AI5" s="61"/>
-      <c r="AJ5" s="62"/>
-      <c r="AK5" s="62"/>
-      <c r="AL5" s="62"/>
-      <c r="AM5" s="61"/>
-      <c r="AN5" s="62"/>
-      <c r="AO5" s="62"/>
-      <c r="AP5" s="62"/>
-      <c r="AQ5" s="62"/>
-      <c r="AR5" s="62"/>
-      <c r="AS5" s="62"/>
-      <c r="AT5" s="62"/>
-      <c r="AU5" s="59"/>
-      <c r="AV5" s="60"/>
-      <c r="AW5" s="60"/>
-      <c r="AX5" s="60"/>
-      <c r="AY5" s="59"/>
-      <c r="AZ5" s="60"/>
-      <c r="BA5" s="60"/>
-      <c r="BB5" s="60"/>
-      <c r="BC5" s="59"/>
-      <c r="BD5" s="60"/>
-      <c r="BE5" s="60"/>
-      <c r="BF5" s="60"/>
+        <v>26</v>
+      </c>
+      <c r="K5" s="54"/>
+      <c r="L5" s="54"/>
+      <c r="M5" s="54"/>
+      <c r="N5" s="54"/>
+      <c r="O5" s="54"/>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="54"/>
+      <c r="R5" s="54"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="52"/>
+      <c r="W5" s="51"/>
+      <c r="X5" s="52"/>
+      <c r="Y5" s="52"/>
+      <c r="Z5" s="52"/>
+      <c r="AA5" s="51"/>
+      <c r="AB5" s="52"/>
+      <c r="AC5" s="52"/>
+      <c r="AD5" s="52"/>
+      <c r="AE5" s="53"/>
+      <c r="AF5" s="54"/>
+      <c r="AG5" s="54"/>
+      <c r="AH5" s="54"/>
+      <c r="AI5" s="53"/>
+      <c r="AJ5" s="54"/>
+      <c r="AK5" s="54"/>
+      <c r="AL5" s="54"/>
+      <c r="AM5" s="53"/>
+      <c r="AN5" s="54"/>
+      <c r="AO5" s="54"/>
+      <c r="AP5" s="54"/>
+      <c r="AQ5" s="54"/>
+      <c r="AR5" s="54"/>
+      <c r="AS5" s="54"/>
+      <c r="AT5" s="54"/>
+      <c r="AU5" s="51"/>
+      <c r="AV5" s="52"/>
+      <c r="AW5" s="52"/>
+      <c r="AX5" s="52"/>
+      <c r="AY5" s="51"/>
+      <c r="AZ5" s="52"/>
+      <c r="BA5" s="52"/>
+      <c r="BB5" s="52"/>
+      <c r="BC5" s="51"/>
+      <c r="BD5" s="52"/>
+      <c r="BE5" s="52"/>
+      <c r="BF5" s="52"/>
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
-        <f>IF(D6=0," ",RANK(D6,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="9">
@@ -9689,11 +9629,11 @@
         <v>60</v>
       </c>
       <c r="D6" s="13">
-        <f>I6+M6+Q6+U6+Y6+AC6+AG6+AK6+AO6+AS6+AW6+BA6+BE6</f>
+        <f t="shared" si="1"/>
         <v>84.5</v>
       </c>
       <c r="E6" s="13">
-        <f>J6+N6+R6+V6+Z6+AD6+AH6+AL6+AP6+AT6+AX6+BB6+BF6</f>
+        <f t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="F6" s="13">
@@ -9716,58 +9656,58 @@
         <f>VLOOKUP(C6,'1'!B11:H111,6,FALSE)</f>
         <v>11</v>
       </c>
-      <c r="K6" s="59"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="60"/>
-      <c r="O6" s="59"/>
-      <c r="P6" s="60"/>
-      <c r="Q6" s="60"/>
-      <c r="R6" s="60"/>
-      <c r="S6" s="59"/>
-      <c r="T6" s="60"/>
-      <c r="U6" s="60"/>
-      <c r="V6" s="60"/>
-      <c r="W6" s="59"/>
-      <c r="X6" s="60"/>
-      <c r="Y6" s="60"/>
-      <c r="Z6" s="60"/>
-      <c r="AA6" s="59"/>
-      <c r="AB6" s="60"/>
-      <c r="AC6" s="60"/>
-      <c r="AD6" s="60"/>
-      <c r="AE6" s="61"/>
-      <c r="AF6" s="62"/>
-      <c r="AG6" s="62"/>
-      <c r="AH6" s="62"/>
-      <c r="AI6" s="61"/>
-      <c r="AJ6" s="62"/>
-      <c r="AK6" s="62"/>
-      <c r="AL6" s="62"/>
-      <c r="AM6" s="61"/>
-      <c r="AN6" s="62"/>
-      <c r="AO6" s="62"/>
-      <c r="AP6" s="62"/>
-      <c r="AQ6" s="61"/>
-      <c r="AR6" s="62"/>
-      <c r="AS6" s="62"/>
-      <c r="AT6" s="62"/>
-      <c r="AU6" s="59"/>
-      <c r="AV6" s="60"/>
-      <c r="AW6" s="60"/>
-      <c r="AX6" s="60"/>
-      <c r="AY6" s="59"/>
-      <c r="AZ6" s="60"/>
-      <c r="BA6" s="60"/>
-      <c r="BB6" s="60"/>
-      <c r="BC6" s="59"/>
-      <c r="BD6" s="60"/>
-      <c r="BE6" s="60"/>
-      <c r="BF6" s="60"/>
+      <c r="K6" s="51"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="51"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
+      <c r="R6" s="52"/>
+      <c r="S6" s="51"/>
+      <c r="T6" s="52"/>
+      <c r="U6" s="52"/>
+      <c r="V6" s="52"/>
+      <c r="W6" s="51"/>
+      <c r="X6" s="52"/>
+      <c r="Y6" s="52"/>
+      <c r="Z6" s="52"/>
+      <c r="AA6" s="51"/>
+      <c r="AB6" s="52"/>
+      <c r="AC6" s="52"/>
+      <c r="AD6" s="52"/>
+      <c r="AE6" s="53"/>
+      <c r="AF6" s="54"/>
+      <c r="AG6" s="54"/>
+      <c r="AH6" s="54"/>
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="54"/>
+      <c r="AK6" s="54"/>
+      <c r="AL6" s="54"/>
+      <c r="AM6" s="53"/>
+      <c r="AN6" s="54"/>
+      <c r="AO6" s="54"/>
+      <c r="AP6" s="54"/>
+      <c r="AQ6" s="53"/>
+      <c r="AR6" s="54"/>
+      <c r="AS6" s="54"/>
+      <c r="AT6" s="54"/>
+      <c r="AU6" s="51"/>
+      <c r="AV6" s="52"/>
+      <c r="AW6" s="52"/>
+      <c r="AX6" s="52"/>
+      <c r="AY6" s="51"/>
+      <c r="AZ6" s="52"/>
+      <c r="BA6" s="52"/>
+      <c r="BB6" s="52"/>
+      <c r="BC6" s="51"/>
+      <c r="BD6" s="52"/>
+      <c r="BE6" s="52"/>
+      <c r="BF6" s="52"/>
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A7" s="11" t="str">
-        <f>IF(D7=0," ",RANK(D7,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B7" s="9">
@@ -9775,73 +9715,73 @@
       </c>
       <c r="C7" s="25"/>
       <c r="D7" s="13">
-        <f t="shared" ref="D4:D12" si="0">I7+M7+Q7+U7+Y7+AC7+AG7+AK7+AO7+AS7+AW7+BA7+BE7</f>
+        <f t="shared" ref="D7:D12" si="2">I7+M7+Q7+U7+Y7+AC7+AG7+AK7+AO7+AS7+AW7+BA7+BE7</f>
         <v>0</v>
       </c>
       <c r="E7" s="13">
-        <f t="shared" ref="E4:E12" si="1">J7+N7+R7+V7+Z7+AD7+AH7+AL7+AP7+AT7+AX7+BB7+BF7</f>
+        <f t="shared" ref="E7:E12" si="3">J7+N7+R7+V7+Z7+AD7+AH7+AL7+AP7+AT7+AX7+BB7+BF7</f>
         <v>0</v>
       </c>
       <c r="F7" s="13">
-        <f t="shared" ref="F4:F12" si="2">COUNTA(H7,L7,P7,T7,X7,AB7,AF7,AJ7,AN7,AR7,AV7,AZ7,BD7)</f>
+        <f t="shared" ref="F7:F12" si="4">COUNTA(H7,L7,P7,T7,X7,AB7,AF7,AJ7,AN7,AR7,AV7,AZ7,BD7)</f>
         <v>0</v>
       </c>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62"/>
-      <c r="J7" s="62"/>
-      <c r="K7" s="59"/>
-      <c r="L7" s="60"/>
-      <c r="M7" s="60"/>
-      <c r="N7" s="60"/>
-      <c r="O7" s="63"/>
-      <c r="P7" s="62"/>
-      <c r="Q7" s="62"/>
-      <c r="R7" s="62"/>
-      <c r="S7" s="59"/>
-      <c r="T7" s="60"/>
-      <c r="U7" s="60"/>
-      <c r="V7" s="60"/>
-      <c r="W7" s="59"/>
-      <c r="X7" s="60"/>
-      <c r="Y7" s="60"/>
-      <c r="Z7" s="60"/>
-      <c r="AA7" s="59"/>
-      <c r="AB7" s="60"/>
-      <c r="AC7" s="60"/>
-      <c r="AD7" s="60"/>
-      <c r="AE7" s="61"/>
-      <c r="AF7" s="62"/>
-      <c r="AG7" s="62"/>
-      <c r="AH7" s="62"/>
-      <c r="AI7" s="61"/>
-      <c r="AJ7" s="62"/>
-      <c r="AK7" s="62"/>
-      <c r="AL7" s="62"/>
-      <c r="AM7" s="61"/>
-      <c r="AN7" s="62"/>
-      <c r="AO7" s="62"/>
-      <c r="AP7" s="62"/>
-      <c r="AQ7" s="61"/>
-      <c r="AR7" s="62"/>
-      <c r="AS7" s="62"/>
-      <c r="AT7" s="62"/>
-      <c r="AU7" s="59"/>
-      <c r="AV7" s="60"/>
-      <c r="AW7" s="60"/>
-      <c r="AX7" s="60"/>
-      <c r="AY7" s="59"/>
-      <c r="AZ7" s="60"/>
-      <c r="BA7" s="60"/>
-      <c r="BB7" s="60"/>
-      <c r="BC7" s="59"/>
-      <c r="BD7" s="60"/>
-      <c r="BE7" s="60"/>
-      <c r="BF7" s="60"/>
+      <c r="G7" s="54"/>
+      <c r="H7" s="54"/>
+      <c r="I7" s="54"/>
+      <c r="J7" s="54"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="55"/>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="54"/>
+      <c r="R7" s="54"/>
+      <c r="S7" s="51"/>
+      <c r="T7" s="52"/>
+      <c r="U7" s="52"/>
+      <c r="V7" s="52"/>
+      <c r="W7" s="51"/>
+      <c r="X7" s="52"/>
+      <c r="Y7" s="52"/>
+      <c r="Z7" s="52"/>
+      <c r="AA7" s="51"/>
+      <c r="AB7" s="52"/>
+      <c r="AC7" s="52"/>
+      <c r="AD7" s="52"/>
+      <c r="AE7" s="53"/>
+      <c r="AF7" s="54"/>
+      <c r="AG7" s="54"/>
+      <c r="AH7" s="54"/>
+      <c r="AI7" s="53"/>
+      <c r="AJ7" s="54"/>
+      <c r="AK7" s="54"/>
+      <c r="AL7" s="54"/>
+      <c r="AM7" s="53"/>
+      <c r="AN7" s="54"/>
+      <c r="AO7" s="54"/>
+      <c r="AP7" s="54"/>
+      <c r="AQ7" s="53"/>
+      <c r="AR7" s="54"/>
+      <c r="AS7" s="54"/>
+      <c r="AT7" s="54"/>
+      <c r="AU7" s="51"/>
+      <c r="AV7" s="52"/>
+      <c r="AW7" s="52"/>
+      <c r="AX7" s="52"/>
+      <c r="AY7" s="51"/>
+      <c r="AZ7" s="52"/>
+      <c r="BA7" s="52"/>
+      <c r="BB7" s="52"/>
+      <c r="BC7" s="51"/>
+      <c r="BD7" s="52"/>
+      <c r="BE7" s="52"/>
+      <c r="BF7" s="52"/>
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A8" s="11" t="str">
-        <f>IF(D8=0," ",RANK(D8,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B8" s="9">
@@ -9849,73 +9789,73 @@
       </c>
       <c r="C8" s="12"/>
       <c r="D8" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E8" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F8" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G8" s="59"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="60"/>
-      <c r="J8" s="60"/>
-      <c r="K8" s="59"/>
-      <c r="L8" s="60"/>
-      <c r="M8" s="60"/>
-      <c r="N8" s="60"/>
-      <c r="O8" s="59"/>
-      <c r="P8" s="60"/>
-      <c r="Q8" s="60"/>
-      <c r="R8" s="60"/>
-      <c r="S8" s="59"/>
-      <c r="T8" s="60"/>
-      <c r="U8" s="60"/>
-      <c r="V8" s="60"/>
-      <c r="W8" s="59"/>
-      <c r="X8" s="60"/>
-      <c r="Y8" s="60"/>
-      <c r="Z8" s="60"/>
-      <c r="AA8" s="59"/>
-      <c r="AB8" s="60"/>
-      <c r="AC8" s="60"/>
-      <c r="AD8" s="60"/>
-      <c r="AE8" s="61"/>
-      <c r="AF8" s="62"/>
-      <c r="AG8" s="62"/>
-      <c r="AH8" s="62"/>
-      <c r="AI8" s="61"/>
-      <c r="AJ8" s="62"/>
-      <c r="AK8" s="62"/>
-      <c r="AL8" s="62"/>
-      <c r="AM8" s="61"/>
-      <c r="AN8" s="62"/>
-      <c r="AO8" s="62"/>
-      <c r="AP8" s="62"/>
-      <c r="AQ8" s="61"/>
-      <c r="AR8" s="62"/>
-      <c r="AS8" s="62"/>
-      <c r="AT8" s="62"/>
-      <c r="AU8" s="59"/>
-      <c r="AV8" s="60"/>
-      <c r="AW8" s="60"/>
-      <c r="AX8" s="60"/>
-      <c r="AY8" s="59"/>
-      <c r="AZ8" s="60"/>
-      <c r="BA8" s="60"/>
-      <c r="BB8" s="60"/>
-      <c r="BC8" s="59"/>
-      <c r="BD8" s="60"/>
-      <c r="BE8" s="60"/>
-      <c r="BF8" s="60"/>
+      <c r="E8" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G8" s="51"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="51"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="51"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
+      <c r="R8" s="52"/>
+      <c r="S8" s="51"/>
+      <c r="T8" s="52"/>
+      <c r="U8" s="52"/>
+      <c r="V8" s="52"/>
+      <c r="W8" s="51"/>
+      <c r="X8" s="52"/>
+      <c r="Y8" s="52"/>
+      <c r="Z8" s="52"/>
+      <c r="AA8" s="51"/>
+      <c r="AB8" s="52"/>
+      <c r="AC8" s="52"/>
+      <c r="AD8" s="52"/>
+      <c r="AE8" s="53"/>
+      <c r="AF8" s="54"/>
+      <c r="AG8" s="54"/>
+      <c r="AH8" s="54"/>
+      <c r="AI8" s="53"/>
+      <c r="AJ8" s="54"/>
+      <c r="AK8" s="54"/>
+      <c r="AL8" s="54"/>
+      <c r="AM8" s="53"/>
+      <c r="AN8" s="54"/>
+      <c r="AO8" s="54"/>
+      <c r="AP8" s="54"/>
+      <c r="AQ8" s="53"/>
+      <c r="AR8" s="54"/>
+      <c r="AS8" s="54"/>
+      <c r="AT8" s="54"/>
+      <c r="AU8" s="51"/>
+      <c r="AV8" s="52"/>
+      <c r="AW8" s="52"/>
+      <c r="AX8" s="52"/>
+      <c r="AY8" s="51"/>
+      <c r="AZ8" s="52"/>
+      <c r="BA8" s="52"/>
+      <c r="BB8" s="52"/>
+      <c r="BC8" s="51"/>
+      <c r="BD8" s="52"/>
+      <c r="BE8" s="52"/>
+      <c r="BF8" s="52"/>
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="str">
-        <f>IF(D9=0," ",RANK(D9,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B9" s="9">
@@ -9923,73 +9863,73 @@
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F9" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="62"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="62"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="59"/>
-      <c r="T9" s="60"/>
-      <c r="U9" s="60"/>
-      <c r="V9" s="60"/>
-      <c r="W9" s="59"/>
-      <c r="X9" s="60"/>
-      <c r="Y9" s="60"/>
-      <c r="Z9" s="60"/>
-      <c r="AA9" s="59"/>
-      <c r="AB9" s="60"/>
-      <c r="AC9" s="60"/>
-      <c r="AD9" s="60"/>
-      <c r="AE9" s="61"/>
-      <c r="AF9" s="62"/>
-      <c r="AG9" s="62"/>
-      <c r="AH9" s="62"/>
-      <c r="AI9" s="61"/>
-      <c r="AJ9" s="62"/>
-      <c r="AK9" s="62"/>
-      <c r="AL9" s="62"/>
-      <c r="AM9" s="61"/>
-      <c r="AN9" s="62"/>
-      <c r="AO9" s="62"/>
-      <c r="AP9" s="62"/>
-      <c r="AQ9" s="62"/>
-      <c r="AR9" s="62"/>
-      <c r="AS9" s="62"/>
-      <c r="AT9" s="62"/>
-      <c r="AU9" s="59"/>
-      <c r="AV9" s="60"/>
-      <c r="AW9" s="60"/>
-      <c r="AX9" s="60"/>
-      <c r="AY9" s="59"/>
-      <c r="AZ9" s="60"/>
-      <c r="BA9" s="60"/>
-      <c r="BB9" s="60"/>
-      <c r="BC9" s="59"/>
-      <c r="BD9" s="60"/>
-      <c r="BE9" s="60"/>
-      <c r="BF9" s="60"/>
+      <c r="E9" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F9" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G9" s="54"/>
+      <c r="H9" s="54"/>
+      <c r="I9" s="54"/>
+      <c r="J9" s="54"/>
+      <c r="K9" s="54"/>
+      <c r="L9" s="54"/>
+      <c r="M9" s="54"/>
+      <c r="N9" s="54"/>
+      <c r="O9" s="54"/>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="54"/>
+      <c r="R9" s="54"/>
+      <c r="S9" s="51"/>
+      <c r="T9" s="52"/>
+      <c r="U9" s="52"/>
+      <c r="V9" s="52"/>
+      <c r="W9" s="51"/>
+      <c r="X9" s="52"/>
+      <c r="Y9" s="52"/>
+      <c r="Z9" s="52"/>
+      <c r="AA9" s="51"/>
+      <c r="AB9" s="52"/>
+      <c r="AC9" s="52"/>
+      <c r="AD9" s="52"/>
+      <c r="AE9" s="53"/>
+      <c r="AF9" s="54"/>
+      <c r="AG9" s="54"/>
+      <c r="AH9" s="54"/>
+      <c r="AI9" s="53"/>
+      <c r="AJ9" s="54"/>
+      <c r="AK9" s="54"/>
+      <c r="AL9" s="54"/>
+      <c r="AM9" s="53"/>
+      <c r="AN9" s="54"/>
+      <c r="AO9" s="54"/>
+      <c r="AP9" s="54"/>
+      <c r="AQ9" s="54"/>
+      <c r="AR9" s="54"/>
+      <c r="AS9" s="54"/>
+      <c r="AT9" s="54"/>
+      <c r="AU9" s="51"/>
+      <c r="AV9" s="52"/>
+      <c r="AW9" s="52"/>
+      <c r="AX9" s="52"/>
+      <c r="AY9" s="51"/>
+      <c r="AZ9" s="52"/>
+      <c r="BA9" s="52"/>
+      <c r="BB9" s="52"/>
+      <c r="BC9" s="51"/>
+      <c r="BD9" s="52"/>
+      <c r="BE9" s="52"/>
+      <c r="BF9" s="52"/>
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="str">
-        <f>IF(D10=0," ",RANK(D10,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B10" s="9">
@@ -9997,73 +9937,73 @@
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F10" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
-      <c r="J10" s="62"/>
-      <c r="K10" s="59"/>
-      <c r="L10" s="60"/>
-      <c r="M10" s="60"/>
-      <c r="N10" s="60"/>
-      <c r="O10" s="63"/>
-      <c r="P10" s="62"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="59"/>
-      <c r="T10" s="60"/>
-      <c r="U10" s="60"/>
-      <c r="V10" s="60"/>
-      <c r="W10" s="59"/>
-      <c r="X10" s="60"/>
-      <c r="Y10" s="60"/>
-      <c r="Z10" s="60"/>
-      <c r="AA10" s="59"/>
-      <c r="AB10" s="60"/>
-      <c r="AC10" s="60"/>
-      <c r="AD10" s="60"/>
-      <c r="AE10" s="61"/>
-      <c r="AF10" s="62"/>
-      <c r="AG10" s="62"/>
-      <c r="AH10" s="62"/>
-      <c r="AI10" s="61"/>
-      <c r="AJ10" s="62"/>
-      <c r="AK10" s="62"/>
-      <c r="AL10" s="62"/>
-      <c r="AM10" s="61"/>
-      <c r="AN10" s="62"/>
-      <c r="AO10" s="62"/>
-      <c r="AP10" s="62"/>
-      <c r="AQ10" s="61"/>
-      <c r="AR10" s="62"/>
-      <c r="AS10" s="62"/>
-      <c r="AT10" s="62"/>
-      <c r="AU10" s="59"/>
-      <c r="AV10" s="60"/>
-      <c r="AW10" s="60"/>
-      <c r="AX10" s="60"/>
-      <c r="AY10" s="59"/>
-      <c r="AZ10" s="60"/>
-      <c r="BA10" s="60"/>
-      <c r="BB10" s="60"/>
-      <c r="BC10" s="59"/>
-      <c r="BD10" s="60"/>
-      <c r="BE10" s="60"/>
-      <c r="BF10" s="60"/>
+      <c r="E10" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="54"/>
+      <c r="H10" s="54"/>
+      <c r="I10" s="54"/>
+      <c r="J10" s="54"/>
+      <c r="K10" s="51"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="55"/>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="54"/>
+      <c r="R10" s="54"/>
+      <c r="S10" s="51"/>
+      <c r="T10" s="52"/>
+      <c r="U10" s="52"/>
+      <c r="V10" s="52"/>
+      <c r="W10" s="51"/>
+      <c r="X10" s="52"/>
+      <c r="Y10" s="52"/>
+      <c r="Z10" s="52"/>
+      <c r="AA10" s="51"/>
+      <c r="AB10" s="52"/>
+      <c r="AC10" s="52"/>
+      <c r="AD10" s="52"/>
+      <c r="AE10" s="53"/>
+      <c r="AF10" s="54"/>
+      <c r="AG10" s="54"/>
+      <c r="AH10" s="54"/>
+      <c r="AI10" s="53"/>
+      <c r="AJ10" s="54"/>
+      <c r="AK10" s="54"/>
+      <c r="AL10" s="54"/>
+      <c r="AM10" s="53"/>
+      <c r="AN10" s="54"/>
+      <c r="AO10" s="54"/>
+      <c r="AP10" s="54"/>
+      <c r="AQ10" s="53"/>
+      <c r="AR10" s="54"/>
+      <c r="AS10" s="54"/>
+      <c r="AT10" s="54"/>
+      <c r="AU10" s="51"/>
+      <c r="AV10" s="52"/>
+      <c r="AW10" s="52"/>
+      <c r="AX10" s="52"/>
+      <c r="AY10" s="51"/>
+      <c r="AZ10" s="52"/>
+      <c r="BA10" s="52"/>
+      <c r="BB10" s="52"/>
+      <c r="BC10" s="51"/>
+      <c r="BD10" s="52"/>
+      <c r="BE10" s="52"/>
+      <c r="BF10" s="52"/>
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="str">
-        <f>IF(D11=0," ",RANK(D11,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B11" s="9">
@@ -10071,73 +10011,73 @@
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F11" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="62"/>
-      <c r="O11" s="62"/>
-      <c r="P11" s="62"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="62"/>
-      <c r="T11" s="62"/>
-      <c r="U11" s="62"/>
-      <c r="V11" s="62"/>
-      <c r="W11" s="62"/>
-      <c r="X11" s="62"/>
-      <c r="Y11" s="62"/>
-      <c r="Z11" s="62"/>
-      <c r="AA11" s="62"/>
-      <c r="AB11" s="62"/>
-      <c r="AC11" s="62"/>
-      <c r="AD11" s="62"/>
-      <c r="AE11" s="61"/>
-      <c r="AF11" s="62"/>
-      <c r="AG11" s="62"/>
-      <c r="AH11" s="62"/>
-      <c r="AI11" s="61"/>
-      <c r="AJ11" s="62"/>
-      <c r="AK11" s="62"/>
-      <c r="AL11" s="62"/>
-      <c r="AM11" s="61"/>
-      <c r="AN11" s="62"/>
-      <c r="AO11" s="62"/>
-      <c r="AP11" s="62"/>
-      <c r="AQ11" s="62"/>
-      <c r="AR11" s="62"/>
-      <c r="AS11" s="62"/>
-      <c r="AT11" s="62"/>
-      <c r="AU11" s="59"/>
-      <c r="AV11" s="60"/>
-      <c r="AW11" s="60"/>
-      <c r="AX11" s="60"/>
-      <c r="AY11" s="59"/>
-      <c r="AZ11" s="60"/>
-      <c r="BA11" s="60"/>
-      <c r="BB11" s="60"/>
-      <c r="BC11" s="59"/>
-      <c r="BD11" s="60"/>
-      <c r="BE11" s="60"/>
-      <c r="BF11" s="60"/>
+      <c r="E11" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G11" s="54"/>
+      <c r="H11" s="54"/>
+      <c r="I11" s="54"/>
+      <c r="J11" s="54"/>
+      <c r="K11" s="54"/>
+      <c r="L11" s="54"/>
+      <c r="M11" s="54"/>
+      <c r="N11" s="54"/>
+      <c r="O11" s="54"/>
+      <c r="P11" s="54"/>
+      <c r="Q11" s="54"/>
+      <c r="R11" s="54"/>
+      <c r="S11" s="54"/>
+      <c r="T11" s="54"/>
+      <c r="U11" s="54"/>
+      <c r="V11" s="54"/>
+      <c r="W11" s="54"/>
+      <c r="X11" s="54"/>
+      <c r="Y11" s="54"/>
+      <c r="Z11" s="54"/>
+      <c r="AA11" s="54"/>
+      <c r="AB11" s="54"/>
+      <c r="AC11" s="54"/>
+      <c r="AD11" s="54"/>
+      <c r="AE11" s="53"/>
+      <c r="AF11" s="54"/>
+      <c r="AG11" s="54"/>
+      <c r="AH11" s="54"/>
+      <c r="AI11" s="53"/>
+      <c r="AJ11" s="54"/>
+      <c r="AK11" s="54"/>
+      <c r="AL11" s="54"/>
+      <c r="AM11" s="53"/>
+      <c r="AN11" s="54"/>
+      <c r="AO11" s="54"/>
+      <c r="AP11" s="54"/>
+      <c r="AQ11" s="54"/>
+      <c r="AR11" s="54"/>
+      <c r="AS11" s="54"/>
+      <c r="AT11" s="54"/>
+      <c r="AU11" s="51"/>
+      <c r="AV11" s="52"/>
+      <c r="AW11" s="52"/>
+      <c r="AX11" s="52"/>
+      <c r="AY11" s="51"/>
+      <c r="AZ11" s="52"/>
+      <c r="BA11" s="52"/>
+      <c r="BB11" s="52"/>
+      <c r="BC11" s="51"/>
+      <c r="BD11" s="52"/>
+      <c r="BE11" s="52"/>
+      <c r="BF11" s="52"/>
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="str">
-        <f>IF(D12=0," ",RANK(D12,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B12" s="9">
@@ -10145,69 +10085,69 @@
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="13">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F12" s="13">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G12" s="62"/>
-      <c r="H12" s="62"/>
-      <c r="I12" s="62"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="62"/>
-      <c r="M12" s="62"/>
-      <c r="N12" s="62"/>
-      <c r="O12" s="62"/>
-      <c r="P12" s="62"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="59"/>
-      <c r="T12" s="60"/>
-      <c r="U12" s="60"/>
-      <c r="V12" s="60"/>
-      <c r="W12" s="59"/>
-      <c r="X12" s="60"/>
-      <c r="Y12" s="60"/>
-      <c r="Z12" s="60"/>
-      <c r="AA12" s="59"/>
-      <c r="AB12" s="60"/>
-      <c r="AC12" s="60"/>
-      <c r="AD12" s="60"/>
-      <c r="AE12" s="61"/>
-      <c r="AF12" s="62"/>
-      <c r="AG12" s="62"/>
-      <c r="AH12" s="62"/>
-      <c r="AI12" s="61"/>
-      <c r="AJ12" s="62"/>
-      <c r="AK12" s="62"/>
-      <c r="AL12" s="62"/>
-      <c r="AM12" s="61"/>
-      <c r="AN12" s="62"/>
-      <c r="AO12" s="62"/>
-      <c r="AP12" s="62"/>
-      <c r="AQ12" s="62"/>
-      <c r="AR12" s="62"/>
-      <c r="AS12" s="62"/>
-      <c r="AT12" s="62"/>
-      <c r="AU12" s="59"/>
-      <c r="AV12" s="60"/>
-      <c r="AW12" s="60"/>
-      <c r="AX12" s="60"/>
-      <c r="AY12" s="59"/>
-      <c r="AZ12" s="60"/>
-      <c r="BA12" s="60"/>
-      <c r="BB12" s="60"/>
-      <c r="BC12" s="59"/>
-      <c r="BD12" s="60"/>
-      <c r="BE12" s="60"/>
-      <c r="BF12" s="60"/>
+      <c r="E12" s="13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F12" s="13">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G12" s="54"/>
+      <c r="H12" s="54"/>
+      <c r="I12" s="54"/>
+      <c r="J12" s="54"/>
+      <c r="K12" s="54"/>
+      <c r="L12" s="54"/>
+      <c r="M12" s="54"/>
+      <c r="N12" s="54"/>
+      <c r="O12" s="54"/>
+      <c r="P12" s="54"/>
+      <c r="Q12" s="54"/>
+      <c r="R12" s="54"/>
+      <c r="S12" s="51"/>
+      <c r="T12" s="52"/>
+      <c r="U12" s="52"/>
+      <c r="V12" s="52"/>
+      <c r="W12" s="51"/>
+      <c r="X12" s="52"/>
+      <c r="Y12" s="52"/>
+      <c r="Z12" s="52"/>
+      <c r="AA12" s="51"/>
+      <c r="AB12" s="52"/>
+      <c r="AC12" s="52"/>
+      <c r="AD12" s="52"/>
+      <c r="AE12" s="53"/>
+      <c r="AF12" s="54"/>
+      <c r="AG12" s="54"/>
+      <c r="AH12" s="54"/>
+      <c r="AI12" s="53"/>
+      <c r="AJ12" s="54"/>
+      <c r="AK12" s="54"/>
+      <c r="AL12" s="54"/>
+      <c r="AM12" s="53"/>
+      <c r="AN12" s="54"/>
+      <c r="AO12" s="54"/>
+      <c r="AP12" s="54"/>
+      <c r="AQ12" s="54"/>
+      <c r="AR12" s="54"/>
+      <c r="AS12" s="54"/>
+      <c r="AT12" s="54"/>
+      <c r="AU12" s="51"/>
+      <c r="AV12" s="52"/>
+      <c r="AW12" s="52"/>
+      <c r="AX12" s="52"/>
+      <c r="AY12" s="51"/>
+      <c r="AZ12" s="52"/>
+      <c r="BA12" s="52"/>
+      <c r="BB12" s="52"/>
+      <c r="BC12" s="51"/>
+      <c r="BD12" s="52"/>
+      <c r="BE12" s="52"/>
+      <c r="BF12" s="52"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:BF12"/>
@@ -10215,16 +10155,6 @@
     <sortCondition ref="B3:B6"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="BC1:BF1"/>
     <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="AQ1:AT1"/>
@@ -10234,6 +10164,16 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="C13:C1048576 C1:C2">
     <cfRule type="duplicateValues" dxfId="17" priority="40"/>
@@ -10303,110 +10243,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52" t="s">
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="51" t="s">
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="53" t="s">
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="53" t="s">
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="53" t="s">
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="53" t="s">
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="53" t="s">
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="53" t="s">
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="52" t="s">
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52" t="s">
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52" t="s">
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="52"/>
-      <c r="BB1" s="52"/>
-      <c r="BC1" s="52" t="s">
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="BD1" s="52"/>
-      <c r="BE1" s="52"/>
-      <c r="BF1" s="52"/>
+      <c r="BD1" s="60"/>
+      <c r="BE1" s="60"/>
+      <c r="BF1" s="60"/>
     </row>
     <row r="2" spans="1:58" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
@@ -11919,16 +11859,6 @@
     <sortCondition ref="B3:B20"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="BC1:BF1"/>
     <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="AQ1:AT1"/>
@@ -11938,6 +11868,16 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="C18:C1048576 C1:C7 C12">
     <cfRule type="duplicateValues" dxfId="13" priority="14"/>
@@ -12020,110 +11960,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="57" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52" t="s">
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="51" t="s">
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="53" t="s">
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="53" t="s">
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="53" t="s">
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="53" t="s">
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="53" t="s">
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="53" t="s">
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="52" t="s">
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52" t="s">
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52" t="s">
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="52"/>
-      <c r="BB1" s="52"/>
-      <c r="BC1" s="52" t="s">
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="BD1" s="52"/>
-      <c r="BE1" s="52"/>
-      <c r="BF1" s="52"/>
+      <c r="BD1" s="60"/>
+      <c r="BE1" s="60"/>
+      <c r="BF1" s="60"/>
     </row>
     <row r="2" spans="1:58" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
@@ -12283,7 +12223,7 @@
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
-        <f>IF(D3=0," ",RANK(D3,$D$3:$D$12,0))</f>
+        <f t="shared" ref="A3:A12" si="0">IF(D3=0," ",RANK(D3,$D$3:$D$12,0))</f>
         <v>1</v>
       </c>
       <c r="B3" s="36">
@@ -12371,7 +12311,7 @@
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
-        <f>IF(D4=0," ",RANK(D4,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="9">
@@ -12381,15 +12321,15 @@
         <v>22</v>
       </c>
       <c r="D4" s="13">
-        <f t="shared" ref="D4:D12" si="0">I4+M4+Q4+U4+Y4+AC4+AG4+AK4+AO4+AS4+AW4+BA4+BE4</f>
+        <f t="shared" ref="D4:D12" si="1">I4+M4+Q4+U4+Y4+AC4+AG4+AK4+AO4+AS4+AW4+BA4+BE4</f>
         <v>98.5</v>
       </c>
       <c r="E4" s="13">
-        <f t="shared" ref="E4:E12" si="1">J4+N4+R4+V4+Z4+AD4+AH4+AL4+AP4+AT4+AX4+BB4+BF4</f>
+        <f t="shared" ref="E4:E12" si="2">J4+N4+R4+V4+Z4+AD4+AH4+AL4+AP4+AT4+AX4+BB4+BF4</f>
         <v>3</v>
       </c>
       <c r="F4" s="13">
-        <f t="shared" ref="F4:F12" si="2">COUNTA(H4,L4,P4,T4,X4,AB4,AF4,AJ4,AN4,AR4,AV4,AZ4,BD4)</f>
+        <f t="shared" ref="F4:F12" si="3">COUNTA(H4,L4,P4,T4,X4,AB4,AF4,AJ4,AN4,AR4,AV4,AZ4,BD4)</f>
         <v>1</v>
       </c>
       <c r="G4" s="5">
@@ -12459,7 +12399,7 @@
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
-        <f>IF(D5=0," ",RANK(D5,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="36">
@@ -12469,15 +12409,15 @@
         <v>121</v>
       </c>
       <c r="D5" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>96.5</v>
       </c>
       <c r="E5" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F5" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G5" s="5">
@@ -12547,7 +12487,7 @@
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
-        <f>IF(D6=0," ",RANK(D6,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="9">
@@ -12557,15 +12497,15 @@
         <v>75</v>
       </c>
       <c r="D6" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>94.5</v>
       </c>
       <c r="E6" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F6" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G6" s="5">
@@ -12635,7 +12575,7 @@
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
-        <f>IF(D7=0," ",RANK(D7,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="9">
@@ -12645,15 +12585,15 @@
         <v>122</v>
       </c>
       <c r="D7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92.5</v>
       </c>
       <c r="E7" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F7" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G7" s="5">
@@ -12723,7 +12663,7 @@
     </row>
     <row r="8" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
-        <f>IF(D8=0," ",RANK(D8,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="9">
@@ -12733,15 +12673,15 @@
         <v>70</v>
       </c>
       <c r="D8" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90.5</v>
       </c>
       <c r="E8" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F8" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G8" s="5">
@@ -12811,7 +12751,7 @@
     </row>
     <row r="9" spans="1:58" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="11">
-        <f>IF(D9=0," ",RANK(D9,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="9">
@@ -12821,15 +12761,15 @@
         <v>123</v>
       </c>
       <c r="D9" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>88.5</v>
       </c>
       <c r="E9" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F9" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G9" s="5">
@@ -12899,7 +12839,7 @@
     </row>
     <row r="10" spans="1:58" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="str">
-        <f>IF(D10=0," ",RANK(D10,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B10" s="9">
@@ -12907,15 +12847,15 @@
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="E10" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F10" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G10" s="4"/>
@@ -12973,7 +12913,7 @@
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="str">
-        <f>IF(D11=0," ",RANK(D11,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B11" s="9">
@@ -12981,15 +12921,15 @@
       </c>
       <c r="C11" s="30"/>
       <c r="D11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="E11" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F11" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G11" s="4"/>
@@ -13047,7 +12987,7 @@
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="str">
-        <f>IF(D12=0," ",RANK(D12,$D$3:$D$12,0))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B12" s="9">
@@ -13055,15 +12995,15 @@
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="E12" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F12" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G12" s="4"/>
@@ -13125,16 +13065,6 @@
     <sortCondition ref="B3:B26"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="BC1:BF1"/>
     <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="AQ1:AT1"/>
@@ -13144,6 +13074,16 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="C13:C1048576 C1:C2">
     <cfRule type="duplicateValues" dxfId="3" priority="21"/>
@@ -13208,110 +13148,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="56" t="s">
+      <c r="B1" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="56" t="s">
+      <c r="C1" s="57" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="56" t="s">
+      <c r="D1" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="56" t="s">
+      <c r="E1" s="57" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="56" t="s">
+      <c r="F1" s="57" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="52"/>
-      <c r="I1" s="52"/>
-      <c r="J1" s="52"/>
-      <c r="K1" s="52" t="s">
+      <c r="H1" s="60"/>
+      <c r="I1" s="60"/>
+      <c r="J1" s="60"/>
+      <c r="K1" s="60" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="52"/>
-      <c r="M1" s="52"/>
-      <c r="N1" s="52"/>
-      <c r="O1" s="51" t="s">
+      <c r="L1" s="60"/>
+      <c r="M1" s="60"/>
+      <c r="N1" s="60"/>
+      <c r="O1" s="64" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="52"/>
-      <c r="Q1" s="52"/>
-      <c r="R1" s="52"/>
-      <c r="S1" s="53" t="s">
+      <c r="P1" s="60"/>
+      <c r="Q1" s="60"/>
+      <c r="R1" s="60"/>
+      <c r="S1" s="61" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="54"/>
-      <c r="U1" s="54"/>
-      <c r="V1" s="55"/>
-      <c r="W1" s="53" t="s">
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="61" t="s">
         <v>79</v>
       </c>
-      <c r="X1" s="54"/>
-      <c r="Y1" s="54"/>
-      <c r="Z1" s="55"/>
-      <c r="AA1" s="53" t="s">
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="61" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="54"/>
-      <c r="AC1" s="54"/>
-      <c r="AD1" s="55"/>
-      <c r="AE1" s="53" t="s">
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="61" t="s">
         <v>81</v>
       </c>
-      <c r="AF1" s="54"/>
-      <c r="AG1" s="54"/>
-      <c r="AH1" s="55"/>
-      <c r="AI1" s="53" t="s">
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="62"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="61" t="s">
         <v>82</v>
       </c>
-      <c r="AJ1" s="54"/>
-      <c r="AK1" s="54"/>
-      <c r="AL1" s="55"/>
-      <c r="AM1" s="53" t="s">
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="61" t="s">
         <v>83</v>
       </c>
-      <c r="AN1" s="54"/>
-      <c r="AO1" s="54"/>
-      <c r="AP1" s="55"/>
-      <c r="AQ1" s="52" t="s">
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="63"/>
+      <c r="AQ1" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="AR1" s="52"/>
-      <c r="AS1" s="52"/>
-      <c r="AT1" s="52"/>
-      <c r="AU1" s="52" t="s">
+      <c r="AR1" s="60"/>
+      <c r="AS1" s="60"/>
+      <c r="AT1" s="60"/>
+      <c r="AU1" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="AV1" s="52"/>
-      <c r="AW1" s="52"/>
-      <c r="AX1" s="52"/>
-      <c r="AY1" s="52" t="s">
+      <c r="AV1" s="60"/>
+      <c r="AW1" s="60"/>
+      <c r="AX1" s="60"/>
+      <c r="AY1" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="AZ1" s="52"/>
-      <c r="BA1" s="52"/>
-      <c r="BB1" s="52"/>
-      <c r="BC1" s="52" t="s">
+      <c r="AZ1" s="60"/>
+      <c r="BA1" s="60"/>
+      <c r="BB1" s="60"/>
+      <c r="BC1" s="60" t="s">
         <v>87</v>
       </c>
-      <c r="BD1" s="52"/>
-      <c r="BE1" s="52"/>
-      <c r="BF1" s="52"/>
+      <c r="BD1" s="60"/>
+      <c r="BE1" s="60"/>
+      <c r="BF1" s="60"/>
     </row>
     <row r="2" spans="1:58" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="57"/>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="58"/>
+      <c r="A2" s="58"/>
+      <c r="B2" s="58"/>
+      <c r="C2" s="58"/>
+      <c r="D2" s="58"/>
+      <c r="E2" s="58"/>
+      <c r="F2" s="59"/>
       <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
@@ -13471,7 +13411,7 @@
     </row>
     <row r="3" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
-        <f>IF(D3=0," ",RANK(D3,$D$3:$D$68,0))</f>
+        <f t="shared" ref="A3:A12" si="0">IF(D3=0," ",RANK(D3,$D$3:$D$68,0))</f>
         <v>1</v>
       </c>
       <c r="B3" s="9">
@@ -13559,7 +13499,7 @@
     </row>
     <row r="4" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A4" s="11">
-        <f>IF(D4=0," ",RANK(D4,$D$3:$D$68,0))</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B4" s="9">
@@ -13569,15 +13509,15 @@
         <v>117</v>
       </c>
       <c r="D4" s="13">
-        <f t="shared" ref="D4:D12" si="0">I4+M4+Q4+U4+Y4+AC4+AG4+AK4+AO4+AS4+AW4+BA4+BE4</f>
+        <f t="shared" ref="D4:D12" si="1">I4+M4+Q4+U4+Y4+AC4+AG4+AK4+AO4+AS4+AW4+BA4+BE4</f>
         <v>98.5</v>
       </c>
       <c r="E4" s="13">
-        <f t="shared" ref="E4:E12" si="1">J4+N4+R4+V4+Z4+AD4+AH4+AL4+AP4+AT4+AX4+BB4+BF4</f>
+        <f t="shared" ref="E4:E12" si="2">J4+N4+R4+V4+Z4+AD4+AH4+AL4+AP4+AT4+AX4+BB4+BF4</f>
         <v>3</v>
       </c>
       <c r="F4" s="13">
-        <f t="shared" ref="F4:F12" si="2">COUNTA(H4,L4,P4,T4,X4,AB4,AF4,AJ4,AN4,AR4,AV4,AZ4,BD4)</f>
+        <f t="shared" ref="F4:F12" si="3">COUNTA(H4,L4,P4,T4,X4,AB4,AF4,AJ4,AN4,AR4,AV4,AZ4,BD4)</f>
         <v>1</v>
       </c>
       <c r="G4" s="5">
@@ -13647,7 +13587,7 @@
     </row>
     <row r="5" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A5" s="11">
-        <f>IF(D5=0," ",RANK(D5,$D$3:$D$68,0))</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B5" s="9">
@@ -13657,15 +13597,15 @@
         <v>58</v>
       </c>
       <c r="D5" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>96.5</v>
       </c>
       <c r="E5" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F5" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G5" s="5">
@@ -13735,7 +13675,7 @@
     </row>
     <row r="6" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A6" s="11">
-        <f>IF(D6=0," ",RANK(D6,$D$3:$D$68,0))</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="9">
@@ -13745,15 +13685,15 @@
         <v>59</v>
       </c>
       <c r="D6" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>94.5</v>
       </c>
       <c r="E6" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F6" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G6" s="5">
@@ -13823,7 +13763,7 @@
     </row>
     <row r="7" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
-        <f>IF(D7=0," ",RANK(D7,$D$3:$D$68,0))</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="9">
@@ -13833,15 +13773,15 @@
         <v>118</v>
       </c>
       <c r="D7" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>92.5</v>
       </c>
       <c r="E7" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F7" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G7" s="5">
@@ -13911,7 +13851,7 @@
     </row>
     <row r="8" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A8" s="11">
-        <f>IF(D8=0," ",RANK(D8,$D$3:$D$68,0))</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="9">
@@ -13921,15 +13861,15 @@
         <v>119</v>
       </c>
       <c r="D8" s="13">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>90.5</v>
       </c>
       <c r="E8" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="F8" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="G8" s="5">
@@ -13999,7 +13939,7 @@
     </row>
     <row r="9" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A9" s="11" t="str">
-        <f>IF(D9=0," ",RANK(D9,$D$3:$D$68,0))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B9" s="9">
@@ -14007,15 +13947,15 @@
       </c>
       <c r="C9" s="12"/>
       <c r="D9" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E9" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="E9" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F9" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G9" s="4"/>
@@ -14073,7 +14013,7 @@
     </row>
     <row r="10" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="str">
-        <f>IF(D10=0," ",RANK(D10,$D$3:$D$68,0))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B10" s="9">
@@ -14081,15 +14021,15 @@
       </c>
       <c r="C10" s="12"/>
       <c r="D10" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E10" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="E10" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F10" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G10" s="4"/>
@@ -14147,7 +14087,7 @@
     </row>
     <row r="11" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="str">
-        <f>IF(D11=0," ",RANK(D11,$D$3:$D$68,0))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B11" s="36">
@@ -14155,15 +14095,15 @@
       </c>
       <c r="C11" s="12"/>
       <c r="D11" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E11" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="E11" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F11" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G11" s="4"/>
@@ -14221,7 +14161,7 @@
     </row>
     <row r="12" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="str">
-        <f>IF(D12=0," ",RANK(D12,$D$3:$D$68,0))</f>
+        <f t="shared" si="0"/>
         <v xml:space="preserve"> </v>
       </c>
       <c r="B12" s="9">
@@ -14229,15 +14169,15 @@
       </c>
       <c r="C12" s="12"/>
       <c r="D12" s="13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E12" s="13">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
+      <c r="E12" s="13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
       <c r="F12" s="13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G12" s="4"/>
@@ -14299,16 +14239,6 @@
     <sortCondition ref="B3:B26"/>
   </sortState>
   <mergeCells count="19">
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
-    <mergeCell ref="AU1:AX1"/>
-    <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="BC1:BF1"/>
     <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="AQ1:AT1"/>
@@ -14318,6 +14248,16 @@
     <mergeCell ref="E1:E2"/>
     <mergeCell ref="F1:F2"/>
     <mergeCell ref="B1:B2"/>
+    <mergeCell ref="AU1:AX1"/>
+    <mergeCell ref="AA1:AD1"/>
+    <mergeCell ref="AE1:AH1"/>
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="C13:C1048576 C1:C2">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>

--- a/2023/Rezultaty_kubka_2023_trail.xlsx
+++ b/2023/Rezultaty_kubka_2023_trail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="5772" tabRatio="691"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11520" windowHeight="5772" tabRatio="691" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="М" sheetId="2" r:id="rId1"/>
@@ -838,15 +838,11 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -857,9 +853,13 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1528,7 +1528,7 @@
   <sheetPr codeName="Лист1"/>
   <dimension ref="A1:BF22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
@@ -1592,110 +1592,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" s="2" customFormat="1" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60" t="s">
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="64" t="s">
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="61" t="s">
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="61" t="s">
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="61" t="s">
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="61" t="s">
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="61" t="s">
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="61" t="s">
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="60" t="s">
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="60"/>
-      <c r="AU1" s="60" t="s">
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="60"/>
-      <c r="AX1" s="60"/>
-      <c r="AY1" s="60" t="s">
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="57"/>
+      <c r="AY1" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="AZ1" s="60"/>
-      <c r="BA1" s="60"/>
-      <c r="BB1" s="60"/>
-      <c r="BC1" s="60" t="s">
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="57"/>
+      <c r="BC1" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="BD1" s="60"/>
-      <c r="BE1" s="60"/>
-      <c r="BF1" s="60"/>
+      <c r="BD1" s="57"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="57"/>
     </row>
     <row r="2" spans="1:58" s="2" customFormat="1" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="20" t="s">
         <v>7</v>
       </c>
@@ -1866,11 +1866,11 @@
       </c>
       <c r="D3" s="13">
         <f t="shared" ref="D3:D17" si="1">I3+M3+Q3+U3+Y3+AC3+AG3+AK3+AO3+AS3+AW3+BA3+BE3</f>
-        <v>113</v>
+        <v>112.5</v>
       </c>
       <c r="E3" s="13">
         <f t="shared" ref="E3:E17" si="2">J3+N3+R3+V3+Z3+AD3+AH3+AL3+AP3+AT3+AX3+BB3+BF3</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="13">
         <f t="shared" ref="F3:F17" si="3">COUNTA(H3,L3,P3,T3,X3,AB3,AF3,AJ3,AN3,AR3,AV3,AZ3,BD3)</f>
@@ -1886,11 +1886,11 @@
       </c>
       <c r="I3" s="6">
         <f>VLOOKUP(H3,Баллы!$A$2:$B$101,2)+J3/2</f>
-        <v>113</v>
+        <v>112.5</v>
       </c>
       <c r="J3" s="6">
         <f>VLOOKUP(C3,'1'!B19:H119,6,FALSE)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="6"/>
@@ -1954,11 +1954,11 @@
       </c>
       <c r="D4" s="13">
         <f t="shared" si="1"/>
-        <v>110</v>
+        <v>109.5</v>
       </c>
       <c r="E4" s="13">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="13">
         <f t="shared" si="3"/>
@@ -1974,11 +1974,11 @@
       </c>
       <c r="I4" s="6">
         <f>VLOOKUP(H4,Баллы!$A$2:$B$101,2)+J4/2</f>
-        <v>110</v>
+        <v>109.5</v>
       </c>
       <c r="J4" s="6">
         <f>VLOOKUP(C4,'1'!B20:H120,6,FALSE)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
@@ -2042,11 +2042,11 @@
       </c>
       <c r="D5" s="13">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>107.5</v>
       </c>
       <c r="E5" s="13">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="13">
         <f t="shared" si="3"/>
@@ -2062,11 +2062,11 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP(H5,Баллы!$A$2:$B$101,2)+J5/2</f>
-        <v>108</v>
+        <v>107.5</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP(C5,'1'!B21:H121,6,FALSE)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="6"/>
@@ -2130,11 +2130,11 @@
       </c>
       <c r="D6" s="13">
         <f t="shared" si="1"/>
-        <v>106</v>
+        <v>105.5</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="3"/>
@@ -2150,11 +2150,11 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP(H6,Баллы!$A$2:$B$101,2)+J6/2</f>
-        <v>106</v>
+        <v>105.5</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP(C6,'1'!B22:H122,6,FALSE)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
@@ -2208,7 +2208,7 @@
     <row r="7" spans="1:58" x14ac:dyDescent="0.3">
       <c r="A7" s="11">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="9">
         <v>5</v>
@@ -2306,11 +2306,11 @@
       </c>
       <c r="D8" s="13">
         <f t="shared" si="1"/>
-        <v>104</v>
+        <v>103.5</v>
       </c>
       <c r="E8" s="13">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="13">
         <f t="shared" si="3"/>
@@ -2326,11 +2326,11 @@
       </c>
       <c r="I8" s="6">
         <f>VLOOKUP(H8,Баллы!$A$2:$B$101,2)+J8/2</f>
-        <v>104</v>
+        <v>103.5</v>
       </c>
       <c r="J8" s="6">
         <f>VLOOKUP(C8,'1'!B23:H123,6,FALSE)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="4"/>
       <c r="L8" s="4"/>
@@ -2570,11 +2570,11 @@
       </c>
       <c r="D11" s="13">
         <f t="shared" si="1"/>
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="E11" s="13">
         <f t="shared" si="2"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="13">
         <f t="shared" si="3"/>
@@ -2590,11 +2590,11 @@
       </c>
       <c r="I11" s="6">
         <f>VLOOKUP(H11,Баллы!$A$2:$B$101,2)+J11/2</f>
-        <v>100</v>
+        <v>99.5</v>
       </c>
       <c r="J11" s="6">
         <f>VLOOKUP(C11,'1'!B24:H124,6,FALSE)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
@@ -3549,6 +3549,14 @@
     <sortCondition ref="B3:B17"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="D1:D2"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="E1:E2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
     <mergeCell ref="BC1:BF1"/>
     <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="O1:R1"/>
@@ -3560,14 +3568,6 @@
     <mergeCell ref="S1:V1"/>
     <mergeCell ref="W1:Z1"/>
     <mergeCell ref="AA1:AD1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="D1:D2"/>
-    <mergeCell ref="F1:F2"/>
-    <mergeCell ref="E1:E2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="C23:C1048576 C1:C2">
@@ -3595,8 +3595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M60" sqref="M60"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4452,7 +4452,7 @@
         <v>107</v>
       </c>
       <c r="G47" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H47" s="1">
         <f>2022-C47</f>
@@ -4479,7 +4479,7 @@
         <v>107</v>
       </c>
       <c r="G48" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H48" s="1">
         <f>2022-C48</f>
@@ -4506,7 +4506,7 @@
         <v>107</v>
       </c>
       <c r="G49" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H49" s="1">
         <f t="shared" ref="H49:H57" si="2">2022-C49</f>
@@ -4533,7 +4533,7 @@
         <v>107</v>
       </c>
       <c r="G50" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H50" s="1">
         <f t="shared" si="2"/>
@@ -4560,7 +4560,7 @@
         <v>107</v>
       </c>
       <c r="G51" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H51" s="1">
         <f t="shared" si="2"/>
@@ -4587,7 +4587,7 @@
         <v>110</v>
       </c>
       <c r="G52" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H52" s="1">
         <f t="shared" si="2"/>
@@ -4614,7 +4614,7 @@
         <v>107</v>
       </c>
       <c r="G53" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H53" s="1">
         <f t="shared" si="2"/>
@@ -4641,7 +4641,7 @@
         <v>110</v>
       </c>
       <c r="G54" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H54" s="1">
         <f t="shared" si="2"/>
@@ -4668,7 +4668,7 @@
         <v>111</v>
       </c>
       <c r="G55" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H55" s="1">
         <f t="shared" si="2"/>
@@ -4695,7 +4695,7 @@
         <v>110</v>
       </c>
       <c r="G56" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H56" s="1">
         <f t="shared" si="2"/>
@@ -4722,7 +4722,7 @@
         <v>111</v>
       </c>
       <c r="G57" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H57" s="1">
         <f t="shared" si="2"/>
@@ -4811,7 +4811,7 @@
         <v>114</v>
       </c>
       <c r="G64" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H64" s="1">
         <f>2022-C64</f>
@@ -4838,7 +4838,7 @@
         <v>116</v>
       </c>
       <c r="G65" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H65" s="1">
         <f>2022-C65</f>
@@ -4865,7 +4865,7 @@
         <v>114</v>
       </c>
       <c r="G66" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H66" s="1">
         <f t="shared" ref="H66" si="3">2022-C66</f>
@@ -5537,110 +5537,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="57" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60" t="s">
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="64" t="s">
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="61" t="s">
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="61" t="s">
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="61" t="s">
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="61" t="s">
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="61" t="s">
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="61" t="s">
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="60" t="s">
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="60"/>
-      <c r="AU1" s="60" t="s">
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="60"/>
-      <c r="AX1" s="60"/>
-      <c r="AY1" s="60" t="s">
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="57"/>
+      <c r="AY1" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="AZ1" s="60"/>
-      <c r="BA1" s="60"/>
-      <c r="BB1" s="60"/>
-      <c r="BC1" s="60" t="s">
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="57"/>
+      <c r="BC1" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="BD1" s="60"/>
-      <c r="BE1" s="60"/>
-      <c r="BF1" s="60"/>
+      <c r="BD1" s="57"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="57"/>
     </row>
     <row r="2" spans="1:58" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
@@ -5811,11 +5811,11 @@
       </c>
       <c r="D3" s="13">
         <f t="shared" ref="D3:E6" si="1">I3+M3+Q3+U3+Y3+AC3+AG3+AK3+AO3+AS3+AW3+BA3+BE3</f>
-        <v>110</v>
+        <v>109.5</v>
       </c>
       <c r="E3" s="13">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="13">
         <f>COUNTA(H3,L3,P3,T3,X3,AB3,AF3,AJ3,AN3,AR3,AV3,AZ3,BD3)</f>
@@ -5831,11 +5831,11 @@
       </c>
       <c r="I3" s="6">
         <f>VLOOKUP(H3,Баллы!$A$2:$B$101,2)+J3/2</f>
-        <v>110</v>
+        <v>109.5</v>
       </c>
       <c r="J3" s="6">
         <f>VLOOKUP(C3,'1'!B13:H113,6,FALSE)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="6"/>
@@ -6621,6 +6621,9 @@
     <sortCondition ref="B3:B6"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="BC1:BF1"/>
     <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="A1:A2"/>
@@ -6637,9 +6640,6 @@
     <mergeCell ref="AA1:AD1"/>
     <mergeCell ref="AU1:AX1"/>
     <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="AQ1:AT1"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <conditionalFormatting sqref="C1:C2 C13:C1048576">
@@ -6704,110 +6704,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60" t="s">
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="64" t="s">
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="61" t="s">
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="61" t="s">
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="61" t="s">
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="61" t="s">
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="61" t="s">
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="61" t="s">
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="60" t="s">
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="60"/>
-      <c r="AU1" s="60" t="s">
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="60"/>
-      <c r="AX1" s="60"/>
-      <c r="AY1" s="60" t="s">
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="57"/>
+      <c r="AY1" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="AZ1" s="60"/>
-      <c r="BA1" s="60"/>
-      <c r="BB1" s="60"/>
-      <c r="BC1" s="60" t="s">
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="57"/>
+      <c r="BC1" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="BD1" s="60"/>
-      <c r="BE1" s="60"/>
-      <c r="BF1" s="60"/>
+      <c r="BD1" s="57"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="57"/>
     </row>
     <row r="2" spans="1:58" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
@@ -6978,11 +6978,11 @@
       </c>
       <c r="D3" s="13">
         <f t="shared" ref="D3:E10" si="1">I3+M3+Q3+U3+Y3+AC3+AG3+AK3+AO3+AS3+AW3+BA3+BE3</f>
-        <v>102</v>
+        <v>101.5</v>
       </c>
       <c r="E3" s="13">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="13">
         <f t="shared" ref="F3:F10" si="2">COUNTA(H3,L3,P3,T3,X3,AB3,AF3,AJ3,AN3,AR3,AV3,AZ3,BD3)</f>
@@ -6998,11 +6998,11 @@
       </c>
       <c r="I3" s="6">
         <f>VLOOKUP(H3,Баллы!$A$2:$B$101,2)+J3/2</f>
-        <v>102</v>
+        <v>101.5</v>
       </c>
       <c r="J3" s="6">
         <f>VLOOKUP(C3,'1'!B15:H115,6,FALSE)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="6"/>
@@ -7154,11 +7154,11 @@
       </c>
       <c r="D5" s="13">
         <f t="shared" si="1"/>
-        <v>98</v>
+        <v>97.5</v>
       </c>
       <c r="E5" s="13">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="13">
         <f t="shared" si="2"/>
@@ -7174,11 +7174,11 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP(H5,Баллы!$A$2:$B$101,2)+J5/2</f>
-        <v>98</v>
+        <v>97.5</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP(C5,'1'!B16:H116,6,FALSE)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5" s="5"/>
       <c r="L5" s="6"/>
@@ -7242,11 +7242,11 @@
       </c>
       <c r="D6" s="13">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>93.5</v>
       </c>
       <c r="E6" s="13">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="2"/>
@@ -7262,11 +7262,11 @@
       </c>
       <c r="I6" s="6">
         <f>VLOOKUP(H6,Баллы!$A$2:$B$101,2)+J6/2</f>
-        <v>94</v>
+        <v>93.5</v>
       </c>
       <c r="J6" s="6">
         <f>VLOOKUP(C6,'1'!B17:H117,6,FALSE)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K6" s="5"/>
       <c r="L6" s="6"/>
@@ -7823,6 +7823,9 @@
     <sortCondition ref="B3:B10"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="AI1:AL1"/>
+    <mergeCell ref="AM1:AP1"/>
+    <mergeCell ref="AQ1:AT1"/>
     <mergeCell ref="BC1:BF1"/>
     <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="A1:A2"/>
@@ -7839,9 +7842,6 @@
     <mergeCell ref="AA1:AD1"/>
     <mergeCell ref="AU1:AX1"/>
     <mergeCell ref="AE1:AH1"/>
-    <mergeCell ref="AI1:AL1"/>
-    <mergeCell ref="AM1:AP1"/>
-    <mergeCell ref="AQ1:AT1"/>
   </mergeCells>
   <conditionalFormatting sqref="B13:B1048576 B1:B2">
     <cfRule type="duplicateValues" dxfId="27" priority="62"/>
@@ -7912,110 +7912,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="60" t="s">
+      <c r="C1" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60" t="s">
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="64" t="s">
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="61" t="s">
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="61" t="s">
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="61" t="s">
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="61" t="s">
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="61" t="s">
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="61" t="s">
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="60" t="s">
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="60"/>
-      <c r="AU1" s="60" t="s">
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="60"/>
-      <c r="AX1" s="60"/>
-      <c r="AY1" s="60" t="s">
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="57"/>
+      <c r="AY1" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="AZ1" s="60"/>
-      <c r="BA1" s="60"/>
-      <c r="BB1" s="60"/>
-      <c r="BC1" s="60" t="s">
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="57"/>
+      <c r="BC1" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="BD1" s="60"/>
-      <c r="BE1" s="60"/>
-      <c r="BF1" s="60"/>
+      <c r="BD1" s="57"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="57"/>
     </row>
     <row r="2" spans="1:58" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="60"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
@@ -8186,11 +8186,11 @@
       </c>
       <c r="D3" s="13">
         <f t="shared" ref="D3:E8" si="1">I3+M3+Q3+U3+Y3+AC3+AG3+AK3+AO3+AS3+AW3+BA3+BE3</f>
-        <v>113</v>
+        <v>112.5</v>
       </c>
       <c r="E3" s="13">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="13">
         <f t="shared" ref="F3:F8" si="2">COUNTA(H3,L3,P3,T3,X3,AB3,AF3,AJ3,AN3,AR3,AV3,AZ3,BD3)</f>
@@ -8206,11 +8206,11 @@
       </c>
       <c r="I3" s="6">
         <f>VLOOKUP(H3,Баллы!$A$2:$B$101,2)+J3/2</f>
-        <v>113</v>
+        <v>112.5</v>
       </c>
       <c r="J3" s="6">
         <f>VLOOKUP(C3,'1'!B14:H114,6,FALSE)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" s="4"/>
       <c r="L3" s="4"/>
@@ -8274,11 +8274,11 @@
       </c>
       <c r="D4" s="13">
         <f t="shared" si="1"/>
-        <v>108</v>
+        <v>107.5</v>
       </c>
       <c r="E4" s="13">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F4" s="13">
         <f t="shared" si="2"/>
@@ -8294,11 +8294,11 @@
       </c>
       <c r="I4" s="6">
         <f>VLOOKUP(H4,Баллы!$A$2:$B$101,2)+J4/2</f>
-        <v>108</v>
+        <v>107.5</v>
       </c>
       <c r="J4" s="6">
         <f>VLOOKUP(C4,'1'!B15:H115,6,FALSE)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K4" s="5"/>
       <c r="L4" s="6"/>
@@ -8538,11 +8538,11 @@
       </c>
       <c r="D7" s="13">
         <f t="shared" si="1"/>
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="E7" s="13">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="13">
         <f t="shared" si="2"/>
@@ -8558,11 +8558,11 @@
       </c>
       <c r="I7" s="6">
         <f>VLOOKUP(H7,Баллы!$A$2:$B$101,2)+J7/2</f>
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="J7" s="6">
         <f>VLOOKUP(C7,'1'!B12:H112,6,FALSE)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K7" s="5"/>
       <c r="L7" s="6"/>
@@ -8626,11 +8626,11 @@
       </c>
       <c r="D8" s="13">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>92.5</v>
       </c>
       <c r="E8" s="13">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="13">
         <f t="shared" si="2"/>
@@ -8646,11 +8646,11 @@
       </c>
       <c r="I8" s="6">
         <f>VLOOKUP(H8,Баллы!$A$2:$B$101,2)+J8/2</f>
-        <v>93</v>
+        <v>92.5</v>
       </c>
       <c r="J8" s="6">
         <f>VLOOKUP(C8,'1'!B13:H113,6,FALSE)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="5"/>
       <c r="L8" s="6"/>
@@ -9003,6 +9003,9 @@
     <sortCondition ref="B3:B8"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
     <mergeCell ref="BC1:BF1"/>
     <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="AQ1:AT1"/>
@@ -9019,9 +9022,6 @@
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="C13:C1048576 C1:C2">
     <cfRule type="duplicateValues" dxfId="22" priority="59"/>
@@ -9092,110 +9092,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60" t="s">
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="64" t="s">
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="61" t="s">
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="61" t="s">
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="61" t="s">
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="61" t="s">
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="61" t="s">
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="61" t="s">
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="60" t="s">
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="60"/>
-      <c r="AU1" s="60" t="s">
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="60"/>
-      <c r="AX1" s="60"/>
-      <c r="AY1" s="60" t="s">
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="57"/>
+      <c r="AY1" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="AZ1" s="60"/>
-      <c r="BA1" s="60"/>
-      <c r="BB1" s="60"/>
-      <c r="BC1" s="60" t="s">
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="57"/>
+      <c r="BC1" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="BD1" s="60"/>
-      <c r="BE1" s="60"/>
-      <c r="BF1" s="60"/>
+      <c r="BD1" s="57"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="57"/>
     </row>
     <row r="2" spans="1:58" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
@@ -9366,11 +9366,11 @@
       </c>
       <c r="D3" s="13">
         <f t="shared" ref="D3:E6" si="1">I3+M3+Q3+U3+Y3+AC3+AG3+AK3+AO3+AS3+AW3+BA3+BE3</f>
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="E3" s="13">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F3" s="13">
         <f>COUNTA(H3,L3,P3,T3,X3,AB3,AF3,AJ3,AN3,AR3,AV3,AZ3,BD3)</f>
@@ -9386,11 +9386,11 @@
       </c>
       <c r="I3" s="6">
         <f>VLOOKUP(H3,Баллы!$A$2:$B$101,2)+J3/2</f>
-        <v>96</v>
+        <v>95.5</v>
       </c>
       <c r="J3" s="6">
         <f>VLOOKUP(C3,'1'!B12:H112,6,FALSE)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K3" s="51"/>
       <c r="L3" s="52"/>
@@ -9542,11 +9542,11 @@
       </c>
       <c r="D5" s="13">
         <f t="shared" si="1"/>
-        <v>93</v>
+        <v>92.5</v>
       </c>
       <c r="E5" s="13">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="13">
         <f>COUNTA(H5,L5,P5,T5,X5,AB5,AF5,AJ5,AN5,AR5,AV5,AZ5,BD5)</f>
@@ -9562,11 +9562,11 @@
       </c>
       <c r="I5" s="6">
         <f>VLOOKUP(H5,Баллы!$A$2:$B$101,2)+J5/2</f>
-        <v>93</v>
+        <v>92.5</v>
       </c>
       <c r="J5" s="6">
         <f>VLOOKUP(C5,'1'!B13:H113,6,FALSE)</f>
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5" s="54"/>
       <c r="L5" s="54"/>
@@ -10155,6 +10155,9 @@
     <sortCondition ref="B3:B6"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
     <mergeCell ref="BC1:BF1"/>
     <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="AQ1:AT1"/>
@@ -10171,9 +10174,6 @@
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="C13:C1048576 C1:C2">
     <cfRule type="duplicateValues" dxfId="17" priority="40"/>
@@ -10243,110 +10243,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60" t="s">
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="64" t="s">
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="61" t="s">
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="61" t="s">
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="61" t="s">
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="61" t="s">
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="61" t="s">
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="61" t="s">
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="60" t="s">
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="60"/>
-      <c r="AU1" s="60" t="s">
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="60"/>
-      <c r="AX1" s="60"/>
-      <c r="AY1" s="60" t="s">
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="57"/>
+      <c r="AY1" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="AZ1" s="60"/>
-      <c r="BA1" s="60"/>
-      <c r="BB1" s="60"/>
-      <c r="BC1" s="60" t="s">
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="57"/>
+      <c r="BC1" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="BD1" s="60"/>
-      <c r="BE1" s="60"/>
-      <c r="BF1" s="60"/>
+      <c r="BD1" s="57"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="57"/>
     </row>
     <row r="2" spans="1:58" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
@@ -11859,6 +11859,9 @@
     <sortCondition ref="B3:B20"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
     <mergeCell ref="BC1:BF1"/>
     <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="AQ1:AT1"/>
@@ -11875,9 +11878,6 @@
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="C18:C1048576 C1:C7 C12">
     <cfRule type="duplicateValues" dxfId="13" priority="14"/>
@@ -11960,110 +11960,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60" t="s">
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="64" t="s">
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="61" t="s">
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="61" t="s">
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="61" t="s">
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="61" t="s">
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="61" t="s">
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="61" t="s">
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="60" t="s">
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="60"/>
-      <c r="AU1" s="60" t="s">
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="60"/>
-      <c r="AX1" s="60"/>
-      <c r="AY1" s="60" t="s">
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="57"/>
+      <c r="AY1" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="AZ1" s="60"/>
-      <c r="BA1" s="60"/>
-      <c r="BB1" s="60"/>
-      <c r="BC1" s="60" t="s">
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="57"/>
+      <c r="BC1" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="BD1" s="60"/>
-      <c r="BE1" s="60"/>
-      <c r="BF1" s="60"/>
+      <c r="BD1" s="57"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="57"/>
     </row>
     <row r="2" spans="1:58" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
@@ -13065,6 +13065,9 @@
     <sortCondition ref="B3:B26"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
     <mergeCell ref="BC1:BF1"/>
     <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="AQ1:AT1"/>
@@ -13081,9 +13084,6 @@
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="C13:C1048576 C1:C2">
     <cfRule type="duplicateValues" dxfId="3" priority="21"/>
@@ -13148,110 +13148,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:58" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="57" t="s">
+      <c r="B1" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="57" t="s">
+      <c r="C1" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="57" t="s">
+      <c r="D1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="57" t="s">
+      <c r="E1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="57" t="s">
+      <c r="F1" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60" t="s">
+      <c r="H1" s="57"/>
+      <c r="I1" s="57"/>
+      <c r="J1" s="57"/>
+      <c r="K1" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="64" t="s">
+      <c r="L1" s="57"/>
+      <c r="M1" s="57"/>
+      <c r="N1" s="57"/>
+      <c r="O1" s="58" t="s">
         <v>53</v>
       </c>
-      <c r="P1" s="60"/>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="61" t="s">
+      <c r="P1" s="57"/>
+      <c r="Q1" s="57"/>
+      <c r="R1" s="57"/>
+      <c r="S1" s="59" t="s">
         <v>78</v>
       </c>
-      <c r="T1" s="62"/>
-      <c r="U1" s="62"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="61" t="s">
+      <c r="T1" s="60"/>
+      <c r="U1" s="60"/>
+      <c r="V1" s="61"/>
+      <c r="W1" s="59" t="s">
         <v>79</v>
       </c>
-      <c r="X1" s="62"/>
-      <c r="Y1" s="62"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="61" t="s">
+      <c r="X1" s="60"/>
+      <c r="Y1" s="60"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="59" t="s">
         <v>80</v>
       </c>
-      <c r="AB1" s="62"/>
-      <c r="AC1" s="62"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="61" t="s">
+      <c r="AB1" s="60"/>
+      <c r="AC1" s="60"/>
+      <c r="AD1" s="61"/>
+      <c r="AE1" s="59" t="s">
         <v>81</v>
       </c>
-      <c r="AF1" s="62"/>
-      <c r="AG1" s="62"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="61" t="s">
+      <c r="AF1" s="60"/>
+      <c r="AG1" s="60"/>
+      <c r="AH1" s="61"/>
+      <c r="AI1" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="AJ1" s="62"/>
-      <c r="AK1" s="62"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="61" t="s">
+      <c r="AJ1" s="60"/>
+      <c r="AK1" s="60"/>
+      <c r="AL1" s="61"/>
+      <c r="AM1" s="59" t="s">
         <v>83</v>
       </c>
-      <c r="AN1" s="62"/>
-      <c r="AO1" s="62"/>
-      <c r="AP1" s="63"/>
-      <c r="AQ1" s="60" t="s">
+      <c r="AN1" s="60"/>
+      <c r="AO1" s="60"/>
+      <c r="AP1" s="61"/>
+      <c r="AQ1" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="60"/>
-      <c r="AU1" s="60" t="s">
+      <c r="AR1" s="57"/>
+      <c r="AS1" s="57"/>
+      <c r="AT1" s="57"/>
+      <c r="AU1" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="60"/>
-      <c r="AX1" s="60"/>
-      <c r="AY1" s="60" t="s">
+      <c r="AV1" s="57"/>
+      <c r="AW1" s="57"/>
+      <c r="AX1" s="57"/>
+      <c r="AY1" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="AZ1" s="60"/>
-      <c r="BA1" s="60"/>
-      <c r="BB1" s="60"/>
-      <c r="BC1" s="60" t="s">
+      <c r="AZ1" s="57"/>
+      <c r="BA1" s="57"/>
+      <c r="BB1" s="57"/>
+      <c r="BC1" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="BD1" s="60"/>
-      <c r="BE1" s="60"/>
-      <c r="BF1" s="60"/>
+      <c r="BD1" s="57"/>
+      <c r="BE1" s="57"/>
+      <c r="BF1" s="57"/>
     </row>
     <row r="2" spans="1:58" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="58"/>
-      <c r="B2" s="58"/>
-      <c r="C2" s="58"/>
-      <c r="D2" s="58"/>
-      <c r="E2" s="58"/>
-      <c r="F2" s="59"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="19" t="s">
         <v>7</v>
       </c>
@@ -14239,6 +14239,9 @@
     <sortCondition ref="B3:B26"/>
   </sortState>
   <mergeCells count="19">
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
     <mergeCell ref="BC1:BF1"/>
     <mergeCell ref="AY1:BB1"/>
     <mergeCell ref="AQ1:AT1"/>
@@ -14255,9 +14258,6 @@
     <mergeCell ref="AM1:AP1"/>
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="K1:N1"/>
-    <mergeCell ref="O1:R1"/>
-    <mergeCell ref="S1:V1"/>
-    <mergeCell ref="W1:Z1"/>
   </mergeCells>
   <conditionalFormatting sqref="C13:C1048576 C1:C2">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
